--- a/Tests/DivisionPerformanceStressTests.xlsx
+++ b/Tests/DivisionPerformanceStressTests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosvazquez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tony/Desktop/Lenguajes/Git Repo/SocialDistancing/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE13784-1126-AA4B-9395-EECC85660E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF28E35-3A7B-0C49-A66E-29155AD2A8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="100" windowWidth="26520" windowHeight="28700" xr2:uid="{8E3CAF62-04B1-184C-99F9-BBF229381B45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8E3CAF62-04B1-184C-99F9-BBF229381B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,15 +54,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Step1</t>
-  </si>
-  <si>
-    <t>Step2</t>
-  </si>
-  <si>
-    <t>Step3</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>The number of division in the image improves the performance, however, more than 4 tasks will not improve the performace that much beacause of the number of CPUs in the machine (4)</t>
+  </si>
+  <si>
+    <t>Step2.1</t>
+  </si>
+  <si>
+    <t>Step2.2</t>
+  </si>
+  <si>
+    <t>Step2.3</t>
   </si>
 </sst>
 </file>
@@ -609,6 +609,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +645,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,50 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,12 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,97 +1011,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87019612-A4D8-5141-A67E-972E276781F1}">
   <dimension ref="A1:AI122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49" t="s">
+    </row>
+    <row r="3" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="D2" s="48" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="38"/>
-      <c r="O4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="27"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="25"/>
+      <c r="O4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
       <c r="X4" s="2"/>
-      <c r="AA4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="27"/>
+      <c r="AA4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="47"/>
     </row>
     <row r="5" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>1</v>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="5" t="s">
         <v>1</v>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
       <c r="B6" s="8">
@@ -1240,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="28">
+      <c r="M6" s="35">
         <v>2</v>
       </c>
       <c r="N6" s="8">
@@ -1277,7 +1277,7 @@
         <v>115</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="28">
+      <c r="Y6" s="35">
         <v>2</v>
       </c>
       <c r="Z6" s="8">
@@ -1315,7 +1315,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="3">
         <v>2</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>119</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="29"/>
+      <c r="Y7" s="36"/>
       <c r="Z7" s="3">
         <v>2</v>
       </c>
@@ -1421,7 +1421,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="3">
         <v>3</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>123</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="29"/>
+      <c r="Y8" s="36"/>
       <c r="Z8" s="3">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="3">
         <v>4</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>133</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="29"/>
+      <c r="Y9" s="36"/>
       <c r="Z9" s="3">
         <v>4</v>
       </c>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="29"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="3">
         <v>5</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>129</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="29"/>
+      <c r="Y10" s="36"/>
       <c r="Z10" s="3">
         <v>5</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="29"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="3">
         <v>6</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>115</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="29"/>
+      <c r="Y11" s="36"/>
       <c r="Z11" s="3">
         <v>6</v>
       </c>
@@ -1845,7 +1845,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="29"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="3">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>125</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="29"/>
+      <c r="Y12" s="36"/>
       <c r="Z12" s="3">
         <v>7</v>
       </c>
@@ -1951,7 +1951,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="29"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="3">
         <v>8</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>124</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="29"/>
+      <c r="Y13" s="36"/>
       <c r="Z13" s="3">
         <v>8</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="29"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="3">
         <v>9</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>126</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="29"/>
+      <c r="Y14" s="36"/>
       <c r="Z14" s="3">
         <v>9</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="3">
         <v>10</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>133</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="29"/>
+      <c r="Y15" s="36"/>
       <c r="Z15" s="3">
         <v>10</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="29"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="3">
         <v>11</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>134</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="29"/>
+      <c r="Y16" s="36"/>
       <c r="Z16" s="3">
         <v>11</v>
       </c>
@@ -2375,7 +2375,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="29"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="3">
         <v>12</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>134</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="29"/>
+      <c r="Y17" s="36"/>
       <c r="Z17" s="3">
         <v>12</v>
       </c>
@@ -2481,7 +2481,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="29"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="3">
         <v>13</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>120</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="29"/>
+      <c r="Y18" s="36"/>
       <c r="Z18" s="3">
         <v>13</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="29"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="3">
         <v>14</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>120</v>
       </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="29"/>
+      <c r="Y19" s="36"/>
       <c r="Z19" s="3">
         <v>14</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="29"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="3">
         <v>15</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>118</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="29"/>
+      <c r="Y20" s="36"/>
       <c r="Z20" s="3">
         <v>15</v>
       </c>
@@ -2799,131 +2799,131 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="12">
-        <f>AVERAGE(C6:C20)</f>
+        <f t="shared" ref="C21:K21" si="18">AVERAGE(C6:C20)</f>
         <v>12.6</v>
       </c>
       <c r="D21" s="1">
-        <f>AVERAGE(D6:D20)</f>
+        <f t="shared" si="18"/>
         <v>20.333333333333332</v>
       </c>
       <c r="E21" s="13">
-        <f>AVERAGE(E6:E20)</f>
+        <f t="shared" si="18"/>
         <v>7.7333333333333334</v>
       </c>
       <c r="F21" s="12">
-        <f>AVERAGE(F6:F20)</f>
+        <f t="shared" si="18"/>
         <v>137.13333333333333</v>
       </c>
       <c r="G21" s="1">
-        <f>AVERAGE(G6:G20)</f>
+        <f t="shared" si="18"/>
         <v>232.93333333333334</v>
       </c>
       <c r="H21" s="13">
-        <f>AVERAGE(H6:H20)</f>
+        <f t="shared" si="18"/>
         <v>95.8</v>
       </c>
       <c r="I21" s="12">
-        <f>AVERAGE(I6:I20)</f>
+        <f t="shared" si="18"/>
         <v>20.733333333333334</v>
       </c>
       <c r="J21" s="1">
-        <f>AVERAGE(J6:J20)</f>
+        <f t="shared" si="18"/>
         <v>34.666666666666664</v>
       </c>
       <c r="K21" s="13">
-        <f>AVERAGE(K6:K20)</f>
+        <f t="shared" si="18"/>
         <v>13.933333333333334</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O21" s="12">
-        <f>AVERAGE(O6:O20)</f>
+        <f t="shared" ref="O21:W21" si="19">AVERAGE(O6:O20)</f>
         <v>48.533333333333331</v>
       </c>
       <c r="P21" s="1">
-        <f>AVERAGE(P6:P20)</f>
+        <f t="shared" si="19"/>
         <v>83.066666666666663</v>
       </c>
       <c r="Q21" s="13">
-        <f>AVERAGE(Q6:Q20)</f>
+        <f t="shared" si="19"/>
         <v>34.533333333333331</v>
       </c>
       <c r="R21" s="12">
-        <f>AVERAGE(R6:R20)</f>
+        <f t="shared" si="19"/>
         <v>494.33333333333331</v>
       </c>
       <c r="S21" s="1">
-        <f>AVERAGE(S6:S20)</f>
+        <f t="shared" si="19"/>
         <v>970.4</v>
       </c>
       <c r="T21" s="13">
-        <f>AVERAGE(T6:T20)</f>
+        <f t="shared" si="19"/>
         <v>476.06666666666666</v>
       </c>
       <c r="U21" s="12">
-        <f>AVERAGE(U6:U20)</f>
+        <f t="shared" si="19"/>
         <v>132.46666666666667</v>
       </c>
       <c r="V21" s="1">
-        <f>AVERAGE(V6:V20)</f>
+        <f t="shared" si="19"/>
         <v>257</v>
       </c>
       <c r="W21" s="13">
-        <f>AVERAGE(W6:W20)</f>
+        <f t="shared" si="19"/>
         <v>124.53333333333333</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="29"/>
+      <c r="Y21" s="36"/>
       <c r="Z21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="12">
-        <f>AVERAGE(AA6:AA20)</f>
+        <f t="shared" ref="AA21:AI21" si="20">AVERAGE(AA6:AA20)</f>
         <v>72.8</v>
       </c>
       <c r="AB21" s="1">
-        <f>AVERAGE(AB6:AB20)</f>
+        <f t="shared" si="20"/>
         <v>86.533333333333331</v>
       </c>
       <c r="AC21" s="13">
-        <f>AVERAGE(AC6:AC20)</f>
+        <f t="shared" si="20"/>
         <v>13.733333333333333</v>
       </c>
       <c r="AD21" s="12">
-        <f>AVERAGE(AD6:AD20)</f>
+        <f t="shared" si="20"/>
         <v>507.66666666666669</v>
       </c>
       <c r="AE21" s="1">
-        <f>AVERAGE(AE6:AE20)</f>
+        <f t="shared" si="20"/>
         <v>736.93333333333328</v>
       </c>
       <c r="AF21" s="13">
-        <f>AVERAGE(AF6:AF20)</f>
+        <f t="shared" si="20"/>
         <v>229.26666666666668</v>
       </c>
       <c r="AG21" s="12">
-        <f>AVERAGE(AG6:AG20)</f>
+        <f t="shared" si="20"/>
         <v>79.400000000000006</v>
       </c>
       <c r="AH21" s="1">
-        <f>AVERAGE(AH6:AH20)</f>
+        <f t="shared" si="20"/>
         <v>159.53333333333333</v>
       </c>
       <c r="AI21" s="13">
-        <f>AVERAGE(AI6:AI20)</f>
+        <f t="shared" si="20"/>
         <v>80.13333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2939,19 +2939,19 @@
         <f>D22-C22</f>
         <v>117.4666666666667</v>
       </c>
-      <c r="F22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="47">
+      <c r="F22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="28">
         <f>(100*E22)/D22</f>
         <v>40.796480666821033</v>
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="17"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="30"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2967,19 +2967,19 @@
         <f>P22-O22</f>
         <v>635.13333333333333</v>
       </c>
-      <c r="R22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47">
+      <c r="R22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="28">
         <f>(100*Q22)/P22</f>
         <v>48.46619524851198</v>
       </c>
       <c r="V22" s="16"/>
       <c r="W22" s="17"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="30"/>
+      <c r="Y22" s="37"/>
       <c r="Z22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2995,12 +2995,12 @@
         <f>AB22-AA22</f>
         <v>323.13333333333321</v>
       </c>
-      <c r="AD22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="47">
+      <c r="AD22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="28">
         <f>(100*AC22)/AB22</f>
         <v>32.872160054255673</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
+      <c r="A23" s="35">
         <v>3</v>
       </c>
       <c r="B23" s="8">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="28">
+      <c r="M23" s="35">
         <v>3</v>
       </c>
       <c r="N23" s="8">
@@ -3082,7 +3082,7 @@
         <v>134</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="28">
+      <c r="Y23" s="35">
         <v>3</v>
       </c>
       <c r="Z23" s="8">
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" ref="E24:E37" si="18">D24-C24</f>
+        <f t="shared" ref="E24:E37" si="21">D24-C24</f>
         <v>-6</v>
       </c>
       <c r="F24" s="12">
@@ -3141,7 +3141,7 @@
         <v>237</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" ref="H24:H37" si="19">G24-F24</f>
+        <f t="shared" ref="H24:H37" si="22">G24-F24</f>
         <v>103</v>
       </c>
       <c r="I24" s="12">
@@ -3151,11 +3151,11 @@
         <v>38</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" ref="K24:K37" si="20">J24-I24</f>
+        <f t="shared" ref="K24:K37" si="23">J24-I24</f>
         <v>22</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="29"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="3">
         <v>2</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>94</v>
       </c>
       <c r="Q24" s="13">
-        <f t="shared" ref="Q24:Q37" si="21">P24-O24</f>
+        <f t="shared" ref="Q24:Q37" si="24">P24-O24</f>
         <v>60</v>
       </c>
       <c r="R24" s="12">
@@ -3176,7 +3176,7 @@
         <v>933</v>
       </c>
       <c r="T24" s="13">
-        <f t="shared" ref="T24:T37" si="22">S24-R24</f>
+        <f t="shared" ref="T24:T37" si="25">S24-R24</f>
         <v>421</v>
       </c>
       <c r="U24" s="12">
@@ -3186,11 +3186,11 @@
         <v>242</v>
       </c>
       <c r="W24" s="13">
-        <f t="shared" ref="W24:W37" si="23">V24-U24</f>
+        <f t="shared" ref="W24:W37" si="26">V24-U24</f>
         <v>159</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="29"/>
+      <c r="Y24" s="36"/>
       <c r="Z24" s="3">
         <v>2</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>94</v>
       </c>
       <c r="AC24" s="13">
-        <f t="shared" ref="AC24:AC37" si="24">AB24-AA24</f>
+        <f t="shared" ref="AC24:AC37" si="27">AB24-AA24</f>
         <v>51</v>
       </c>
       <c r="AD24" s="12">
@@ -3211,7 +3211,7 @@
         <v>652</v>
       </c>
       <c r="AF24" s="13">
-        <f t="shared" ref="AF24:AF37" si="25">AE24-AD24</f>
+        <f t="shared" ref="AF24:AF37" si="28">AE24-AD24</f>
         <v>412</v>
       </c>
       <c r="AG24" s="12">
@@ -3221,12 +3221,12 @@
         <v>175</v>
       </c>
       <c r="AI24" s="13">
-        <f t="shared" ref="AI24:AI37" si="26">AH24-AG24</f>
+        <f t="shared" ref="AI24:AI37" si="29">AH24-AG24</f>
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="F25" s="12">
@@ -3247,7 +3247,7 @@
         <v>201</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="I25" s="12">
@@ -3257,11 +3257,11 @@
         <v>38</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="29"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="3">
         <v>3</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>80</v>
       </c>
       <c r="Q25" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="R25" s="12">
@@ -3282,7 +3282,7 @@
         <v>931</v>
       </c>
       <c r="T25" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>180</v>
       </c>
       <c r="U25" s="12">
@@ -3292,11 +3292,11 @@
         <v>259</v>
       </c>
       <c r="W25" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>187</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="29"/>
+      <c r="Y25" s="36"/>
       <c r="Z25" s="3">
         <v>3</v>
       </c>
@@ -3307,291 +3307,291 @@
         <v>90</v>
       </c>
       <c r="AC25" s="13">
+        <f t="shared" si="27"/>
+        <v>51</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>216</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>649</v>
+      </c>
+      <c r="AF25" s="13">
+        <f t="shared" si="28"/>
+        <v>433</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>54</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>166</v>
+      </c>
+      <c r="AI25" s="13">
+        <f t="shared" si="29"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="12">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="F26" s="12">
+        <v>167</v>
+      </c>
+      <c r="G26" s="1">
+        <v>254</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="22"/>
+        <v>87</v>
+      </c>
+      <c r="I26" s="12">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>39</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="23"/>
+        <v>-61</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="3">
+        <v>4</v>
+      </c>
+      <c r="O26" s="12">
+        <v>36</v>
+      </c>
+      <c r="P26" s="1">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="24"/>
+        <v>45</v>
+      </c>
+      <c r="R26" s="12">
+        <v>279</v>
+      </c>
+      <c r="S26" s="1">
+        <v>870</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" si="25"/>
+        <v>591</v>
+      </c>
+      <c r="U26" s="12">
+        <v>79</v>
+      </c>
+      <c r="V26" s="1">
+        <v>257</v>
+      </c>
+      <c r="W26" s="13">
+        <f t="shared" si="26"/>
+        <v>178</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>41</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>83</v>
+      </c>
+      <c r="AC26" s="13">
+        <f t="shared" si="27"/>
+        <v>42</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>454</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>965</v>
+      </c>
+      <c r="AF26" s="13">
+        <f t="shared" si="28"/>
+        <v>511</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>56</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>162</v>
+      </c>
+      <c r="AI26" s="13">
+        <f t="shared" si="29"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>19</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="12">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1">
+        <v>242</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="22"/>
+        <v>173</v>
+      </c>
+      <c r="I27" s="12">
+        <v>11</v>
+      </c>
+      <c r="J27" s="1">
+        <v>35</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="3">
+        <v>5</v>
+      </c>
+      <c r="O27" s="12">
+        <v>28</v>
+      </c>
+      <c r="P27" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="13">
         <f t="shared" si="24"/>
         <v>51</v>
       </c>
-      <c r="AD25" s="12">
-        <v>216</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>649</v>
-      </c>
-      <c r="AF25" s="13">
+      <c r="R27" s="12">
+        <v>635</v>
+      </c>
+      <c r="S27" s="1">
+        <v>970</v>
+      </c>
+      <c r="T27" s="13">
         <f t="shared" si="25"/>
-        <v>433</v>
-      </c>
-      <c r="AG25" s="12">
-        <v>54</v>
-      </c>
-      <c r="AH25" s="1">
-        <v>166</v>
-      </c>
-      <c r="AI25" s="13">
+        <v>335</v>
+      </c>
+      <c r="U27" s="12">
+        <v>72</v>
+      </c>
+      <c r="V27" s="1">
+        <v>252</v>
+      </c>
+      <c r="W27" s="13">
         <f t="shared" si="26"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="12">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
-        <v>24</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="F26" s="12">
-        <v>167</v>
-      </c>
-      <c r="G26" s="1">
-        <v>254</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="19"/>
-        <v>87</v>
-      </c>
-      <c r="I26" s="12">
+        <v>180</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>43</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>82</v>
+      </c>
+      <c r="AC27" s="13">
+        <f t="shared" si="27"/>
+        <v>39</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>474</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>950</v>
+      </c>
+      <c r="AF27" s="13">
+        <f t="shared" si="28"/>
+        <v>476</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>53</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>158</v>
+      </c>
+      <c r="AI27" s="13">
+        <f t="shared" si="29"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="12">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>19</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="F28" s="12">
+        <v>144</v>
+      </c>
+      <c r="G28" s="1">
+        <v>244</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
-      <c r="J26" s="1">
-        <v>39</v>
-      </c>
-      <c r="K26" s="13">
-        <f t="shared" si="20"/>
-        <v>-61</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="3">
-        <v>4</v>
-      </c>
-      <c r="O26" s="12">
-        <v>36</v>
-      </c>
-      <c r="P26" s="1">
-        <v>81</v>
-      </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="21"/>
-        <v>45</v>
-      </c>
-      <c r="R26" s="12">
-        <v>279</v>
-      </c>
-      <c r="S26" s="1">
-        <v>870</v>
-      </c>
-      <c r="T26" s="13">
-        <f t="shared" si="22"/>
-        <v>591</v>
-      </c>
-      <c r="U26" s="12">
-        <v>79</v>
-      </c>
-      <c r="V26" s="1">
-        <v>257</v>
-      </c>
-      <c r="W26" s="13">
+      <c r="I28" s="12">
+        <v>12</v>
+      </c>
+      <c r="J28" s="1">
+        <v>35</v>
+      </c>
+      <c r="K28" s="13">
         <f t="shared" si="23"/>
-        <v>178</v>
-      </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="12">
-        <v>41</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>83</v>
-      </c>
-      <c r="AC26" s="13">
+        <v>23</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="3">
+        <v>6</v>
+      </c>
+      <c r="O28" s="12">
+        <v>38</v>
+      </c>
+      <c r="P28" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="13">
         <f t="shared" si="24"/>
         <v>42</v>
       </c>
-      <c r="AD26" s="12">
-        <v>454</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>965</v>
-      </c>
-      <c r="AF26" s="13">
-        <f t="shared" si="25"/>
-        <v>511</v>
-      </c>
-      <c r="AG26" s="12">
-        <v>56</v>
-      </c>
-      <c r="AH26" s="1">
-        <v>162</v>
-      </c>
-      <c r="AI26" s="13">
-        <f t="shared" si="26"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="12">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1">
-        <v>19</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="F27" s="12">
-        <v>69</v>
-      </c>
-      <c r="G27" s="1">
-        <v>242</v>
-      </c>
-      <c r="H27" s="13">
-        <f t="shared" si="19"/>
-        <v>173</v>
-      </c>
-      <c r="I27" s="12">
-        <v>11</v>
-      </c>
-      <c r="J27" s="1">
-        <v>35</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="shared" si="20"/>
-        <v>24</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="3">
-        <v>5</v>
-      </c>
-      <c r="O27" s="12">
-        <v>28</v>
-      </c>
-      <c r="P27" s="1">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="21"/>
-        <v>51</v>
-      </c>
-      <c r="R27" s="12">
-        <v>635</v>
-      </c>
-      <c r="S27" s="1">
-        <v>970</v>
-      </c>
-      <c r="T27" s="13">
-        <f t="shared" si="22"/>
-        <v>335</v>
-      </c>
-      <c r="U27" s="12">
-        <v>72</v>
-      </c>
-      <c r="V27" s="1">
-        <v>252</v>
-      </c>
-      <c r="W27" s="13">
-        <f t="shared" si="23"/>
-        <v>180</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="12">
-        <v>43</v>
-      </c>
-      <c r="AB27" s="1">
-        <v>82</v>
-      </c>
-      <c r="AC27" s="13">
-        <f t="shared" si="24"/>
-        <v>39</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>474</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>950</v>
-      </c>
-      <c r="AF27" s="13">
-        <f t="shared" si="25"/>
-        <v>476</v>
-      </c>
-      <c r="AG27" s="12">
-        <v>53</v>
-      </c>
-      <c r="AH27" s="1">
-        <v>158</v>
-      </c>
-      <c r="AI27" s="13">
-        <f t="shared" si="26"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="12">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1">
-        <v>19</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="F28" s="12">
-        <v>144</v>
-      </c>
-      <c r="G28" s="1">
-        <v>244</v>
-      </c>
-      <c r="H28" s="13">
-        <f t="shared" si="19"/>
-        <v>100</v>
-      </c>
-      <c r="I28" s="12">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1">
-        <v>35</v>
-      </c>
-      <c r="K28" s="13">
-        <f t="shared" si="20"/>
-        <v>23</v>
-      </c>
-      <c r="M28" s="29"/>
-      <c r="N28" s="3">
-        <v>6</v>
-      </c>
-      <c r="O28" s="12">
-        <v>38</v>
-      </c>
-      <c r="P28" s="1">
-        <v>80</v>
-      </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="21"/>
-        <v>42</v>
-      </c>
       <c r="R28" s="12">
         <v>585</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>969</v>
       </c>
       <c r="T28" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>384</v>
       </c>
       <c r="U28" s="12">
@@ -3609,10 +3609,10 @@
         <v>249</v>
       </c>
       <c r="W28" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>175</v>
       </c>
-      <c r="Y28" s="29"/>
+      <c r="Y28" s="36"/>
       <c r="Z28" s="3">
         <v>6</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>86</v>
       </c>
       <c r="AC28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>40</v>
       </c>
       <c r="AD28" s="12">
@@ -3633,7 +3633,7 @@
         <v>951</v>
       </c>
       <c r="AF28" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>464</v>
       </c>
       <c r="AG28" s="12">
@@ -3643,12 +3643,12 @@
         <v>162</v>
       </c>
       <c r="AI28" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="3">
         <v>7</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="F29" s="12">
@@ -3669,7 +3669,7 @@
         <v>242</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>107</v>
       </c>
       <c r="I29" s="12">
@@ -3679,10 +3679,10 @@
         <v>33</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="M29" s="29"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="3">
         <v>7</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>79</v>
       </c>
       <c r="Q29" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="R29" s="12">
@@ -3703,7 +3703,7 @@
         <v>982</v>
       </c>
       <c r="T29" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>709</v>
       </c>
       <c r="U29" s="12">
@@ -3713,10 +3713,10 @@
         <v>251</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y29" s="29"/>
+      <c r="Y29" s="36"/>
       <c r="Z29" s="3">
         <v>7</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>88</v>
       </c>
       <c r="AC29" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
       <c r="AD29" s="12">
@@ -3737,7 +3737,7 @@
         <v>991</v>
       </c>
       <c r="AF29" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>516</v>
       </c>
       <c r="AG29" s="12">
@@ -3747,12 +3747,12 @@
         <v>991</v>
       </c>
       <c r="AI29" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>928</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="29"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="3">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F30" s="12">
@@ -3773,7 +3773,7 @@
         <v>238</v>
       </c>
       <c r="H30" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="I30" s="12">
@@ -3783,10 +3783,10 @@
         <v>35</v>
       </c>
       <c r="K30" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M30" s="29"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="3">
         <v>8</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>79</v>
       </c>
       <c r="Q30" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>52</v>
       </c>
       <c r="R30" s="12">
@@ -3807,7 +3807,7 @@
         <v>984</v>
       </c>
       <c r="T30" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>706</v>
       </c>
       <c r="U30" s="12">
@@ -3817,10 +3817,10 @@
         <v>252</v>
       </c>
       <c r="W30" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>172</v>
       </c>
-      <c r="Y30" s="29"/>
+      <c r="Y30" s="36"/>
       <c r="Z30" s="3">
         <v>8</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>86</v>
       </c>
       <c r="AC30" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
       <c r="AD30" s="12">
@@ -3841,7 +3841,7 @@
         <v>972</v>
       </c>
       <c r="AF30" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>497</v>
       </c>
       <c r="AG30" s="12">
@@ -3851,12 +3851,12 @@
         <v>160</v>
       </c>
       <c r="AI30" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="3">
         <v>9</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="E31" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F31" s="12">
@@ -3877,7 +3877,7 @@
         <v>241</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="I31" s="12">
@@ -3887,10 +3887,10 @@
         <v>35</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M31" s="29"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="3">
         <v>9</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>79</v>
       </c>
       <c r="Q31" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="R31" s="12">
@@ -3911,7 +3911,7 @@
         <v>962</v>
       </c>
       <c r="T31" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="U31" s="12">
@@ -3921,10 +3921,10 @@
         <v>248</v>
       </c>
       <c r="W31" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
-      <c r="Y31" s="29"/>
+      <c r="Y31" s="36"/>
       <c r="Z31" s="3">
         <v>9</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>84</v>
       </c>
       <c r="AC31" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="AD31" s="12">
@@ -3945,7 +3945,7 @@
         <v>971</v>
       </c>
       <c r="AF31" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>490</v>
       </c>
       <c r="AG31" s="12">
@@ -3955,12 +3955,12 @@
         <v>159</v>
       </c>
       <c r="AI31" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="3">
         <v>10</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F32" s="12">
@@ -3981,7 +3981,7 @@
         <v>235</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="I32" s="12">
@@ -3991,10 +3991,10 @@
         <v>35</v>
       </c>
       <c r="K32" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="3">
         <v>10</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>79</v>
       </c>
       <c r="Q32" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="R32" s="12">
@@ -4015,7 +4015,7 @@
         <v>958</v>
       </c>
       <c r="T32" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>393</v>
       </c>
       <c r="U32" s="12">
@@ -4025,10 +4025,10 @@
         <v>241</v>
       </c>
       <c r="W32" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>172</v>
       </c>
-      <c r="Y32" s="29"/>
+      <c r="Y32" s="36"/>
       <c r="Z32" s="3">
         <v>10</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>83</v>
       </c>
       <c r="AC32" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="AD32" s="12">
@@ -4049,7 +4049,7 @@
         <v>995</v>
       </c>
       <c r="AF32" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>759</v>
       </c>
       <c r="AG32" s="12">
@@ -4059,12 +4059,12 @@
         <v>164</v>
       </c>
       <c r="AI32" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="3">
         <v>11</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="F33" s="12">
@@ -4085,7 +4085,7 @@
         <v>238</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="I33" s="12">
@@ -4095,10 +4095,10 @@
         <v>35</v>
       </c>
       <c r="K33" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="M33" s="29"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="3">
         <v>11</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>78</v>
       </c>
       <c r="Q33" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="R33" s="12">
@@ -4119,7 +4119,7 @@
         <v>957</v>
       </c>
       <c r="T33" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>407</v>
       </c>
       <c r="U33" s="12">
@@ -4129,10 +4129,10 @@
         <v>248</v>
       </c>
       <c r="W33" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>178</v>
       </c>
-      <c r="Y33" s="29"/>
+      <c r="Y33" s="36"/>
       <c r="Z33" s="3">
         <v>11</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>83</v>
       </c>
       <c r="AC33" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="AD33" s="12">
@@ -4153,7 +4153,7 @@
         <v>951</v>
       </c>
       <c r="AF33" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>735</v>
       </c>
       <c r="AG33" s="12">
@@ -4163,12 +4163,12 @@
         <v>169</v>
       </c>
       <c r="AI33" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="29"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="3">
         <v>12</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="E34" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F34" s="12">
@@ -4189,7 +4189,7 @@
         <v>245</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>182</v>
       </c>
       <c r="I34" s="12">
@@ -4199,10 +4199,10 @@
         <v>34</v>
       </c>
       <c r="K34" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="3">
         <v>12</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>77</v>
       </c>
       <c r="Q34" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="R34" s="12">
@@ -4223,7 +4223,7 @@
         <v>946</v>
       </c>
       <c r="T34" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>685</v>
       </c>
       <c r="U34" s="12">
@@ -4233,10 +4233,10 @@
         <v>244</v>
       </c>
       <c r="W34" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y34" s="29"/>
+      <c r="Y34" s="36"/>
       <c r="Z34" s="3">
         <v>12</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>83</v>
       </c>
       <c r="AC34" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="AD34" s="12">
@@ -4257,7 +4257,7 @@
         <v>950</v>
       </c>
       <c r="AF34" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>485</v>
       </c>
       <c r="AG34" s="12">
@@ -4267,12 +4267,12 @@
         <v>158</v>
       </c>
       <c r="AI34" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="29"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="3">
         <v>13</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F35" s="12">
@@ -4293,7 +4293,7 @@
         <v>242</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="I35" s="12">
@@ -4303,10 +4303,10 @@
         <v>33</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="M35" s="29"/>
+      <c r="M35" s="36"/>
       <c r="N35" s="3">
         <v>13</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="Q35" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="R35" s="12">
@@ -4327,7 +4327,7 @@
         <v>948</v>
       </c>
       <c r="T35" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>688</v>
       </c>
       <c r="U35" s="12">
@@ -4337,10 +4337,10 @@
         <v>246</v>
       </c>
       <c r="W35" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>173</v>
       </c>
-      <c r="Y35" s="29"/>
+      <c r="Y35" s="36"/>
       <c r="Z35" s="3">
         <v>13</v>
       </c>
@@ -4351,79 +4351,79 @@
         <v>87</v>
       </c>
       <c r="AC35" s="13">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="AD35" s="12">
+        <v>510</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>954</v>
+      </c>
+      <c r="AF35" s="13">
+        <f t="shared" si="28"/>
+        <v>444</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>52</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>159</v>
+      </c>
+      <c r="AI35" s="13">
+        <f t="shared" si="29"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="3">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1">
+        <v>17</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="12">
+        <v>63</v>
+      </c>
+      <c r="G36" s="1">
+        <v>235</v>
+      </c>
+      <c r="H36" s="13">
+        <f t="shared" si="22"/>
+        <v>172</v>
+      </c>
+      <c r="I36" s="12">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>34</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="N36" s="3">
+        <v>14</v>
+      </c>
+      <c r="O36" s="12">
+        <v>28</v>
+      </c>
+      <c r="P36" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="13">
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="AD35" s="12">
-        <v>510</v>
-      </c>
-      <c r="AE35" s="1">
-        <v>954</v>
-      </c>
-      <c r="AF35" s="13">
-        <f t="shared" si="25"/>
-        <v>444</v>
-      </c>
-      <c r="AG35" s="12">
-        <v>52</v>
-      </c>
-      <c r="AH35" s="1">
-        <v>159</v>
-      </c>
-      <c r="AI35" s="13">
-        <f t="shared" si="26"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="B36" s="3">
-        <v>14</v>
-      </c>
-      <c r="C36" s="12">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1">
-        <v>17</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="F36" s="12">
-        <v>63</v>
-      </c>
-      <c r="G36" s="1">
-        <v>235</v>
-      </c>
-      <c r="H36" s="13">
-        <f t="shared" si="19"/>
-        <v>172</v>
-      </c>
-      <c r="I36" s="12">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
-        <v>34</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="shared" si="20"/>
-        <v>24</v>
-      </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="3">
-        <v>14</v>
-      </c>
-      <c r="O36" s="12">
-        <v>28</v>
-      </c>
-      <c r="P36" s="1">
-        <v>78</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="21"/>
-        <v>50</v>
-      </c>
       <c r="R36" s="12">
         <v>582</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>948</v>
       </c>
       <c r="T36" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>366</v>
       </c>
       <c r="U36" s="12">
@@ -4441,10 +4441,10 @@
         <v>246</v>
       </c>
       <c r="W36" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>178</v>
       </c>
-      <c r="Y36" s="29"/>
+      <c r="Y36" s="36"/>
       <c r="Z36" s="3">
         <v>14</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>82</v>
       </c>
       <c r="AC36" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="AD36" s="12">
@@ -4465,7 +4465,7 @@
         <v>958</v>
       </c>
       <c r="AF36" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>428</v>
       </c>
       <c r="AG36" s="12">
@@ -4475,12 +4475,12 @@
         <v>160</v>
       </c>
       <c r="AI36" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="3">
         <v>15</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="F37" s="12">
@@ -4501,7 +4501,7 @@
         <v>234</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>93</v>
       </c>
       <c r="I37" s="12">
@@ -4511,10 +4511,10 @@
         <v>34</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="M37" s="29"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="3">
         <v>15</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>78</v>
       </c>
       <c r="Q37" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>51</v>
       </c>
       <c r="R37" s="12">
@@ -4535,7 +4535,7 @@
         <v>949</v>
       </c>
       <c r="T37" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>336</v>
       </c>
       <c r="U37" s="12">
@@ -4545,10 +4545,10 @@
         <v>247</v>
       </c>
       <c r="W37" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y37" s="29"/>
+      <c r="Y37" s="36"/>
       <c r="Z37" s="3">
         <v>15</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>84</v>
       </c>
       <c r="AC37" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="AD37" s="12">
@@ -4569,7 +4569,7 @@
         <v>956</v>
       </c>
       <c r="AF37" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>424</v>
       </c>
       <c r="AG37" s="12">
@@ -4579,134 +4579,134 @@
         <v>159</v>
       </c>
       <c r="AI37" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C38" s="12">
-        <f>AVERAGE(C23:C37)</f>
+        <f t="shared" ref="C38:K38" si="30">AVERAGE(C23:C37)</f>
         <v>15.8</v>
       </c>
       <c r="D38" s="1">
-        <f>AVERAGE(D23:D37)</f>
+        <f t="shared" si="30"/>
         <v>20.399999999999999</v>
       </c>
       <c r="E38" s="13">
-        <f>AVERAGE(E23:E37)</f>
+        <f t="shared" si="30"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="F38" s="12">
-        <f>AVERAGE(F23:F37)</f>
+        <f t="shared" si="30"/>
         <v>131.66666666666666</v>
       </c>
       <c r="G38" s="1">
-        <f>AVERAGE(G23:G37)</f>
+        <f t="shared" si="30"/>
         <v>234.73333333333332</v>
       </c>
       <c r="H38" s="13">
-        <f>AVERAGE(H23:H37)</f>
+        <f t="shared" si="30"/>
         <v>103.06666666666666</v>
       </c>
       <c r="I38" s="12">
-        <f>AVERAGE(I23:I37)</f>
+        <f t="shared" si="30"/>
         <v>19.066666666666666</v>
       </c>
       <c r="J38" s="1">
-        <f>AVERAGE(J23:J37)</f>
+        <f t="shared" si="30"/>
         <v>35.4</v>
       </c>
       <c r="K38" s="13">
-        <f>AVERAGE(K23:K37)</f>
+        <f t="shared" si="30"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="M38" s="29"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O38" s="12">
-        <f>AVERAGE(O23:O37)</f>
+        <f t="shared" ref="O38:W38" si="31">AVERAGE(O23:O37)</f>
         <v>32.06666666666667</v>
       </c>
       <c r="P38" s="1">
-        <f>AVERAGE(P23:P37)</f>
+        <f t="shared" si="31"/>
         <v>81.599999999999994</v>
       </c>
       <c r="Q38" s="13">
-        <f>AVERAGE(Q23:Q37)</f>
+        <f t="shared" si="31"/>
         <v>49.533333333333331</v>
       </c>
       <c r="R38" s="12">
-        <f>AVERAGE(R23:R37)</f>
+        <f t="shared" si="31"/>
         <v>492.33333333333331</v>
       </c>
       <c r="S38" s="1">
-        <f>AVERAGE(S23:S37)</f>
+        <f t="shared" si="31"/>
         <v>940.06666666666672</v>
       </c>
       <c r="T38" s="13">
-        <f>AVERAGE(T23:T37)</f>
+        <f t="shared" si="31"/>
         <v>447.73333333333335</v>
       </c>
       <c r="U38" s="12">
-        <f>AVERAGE(U23:U37)</f>
+        <f t="shared" si="31"/>
         <v>75.86666666666666</v>
       </c>
       <c r="V38" s="1">
-        <f>AVERAGE(V23:V37)</f>
+        <f t="shared" si="31"/>
         <v>249</v>
       </c>
       <c r="W38" s="13">
-        <f>AVERAGE(W23:W37)</f>
+        <f t="shared" si="31"/>
         <v>173.13333333333333</v>
       </c>
-      <c r="Y38" s="29"/>
+      <c r="Y38" s="36"/>
       <c r="Z38" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA38" s="12">
-        <f>AVERAGE(AA23:AA37)</f>
+        <f t="shared" ref="AA38:AI38" si="32">AVERAGE(AA23:AA37)</f>
         <v>42.333333333333336</v>
       </c>
       <c r="AB38" s="1">
-        <f>AVERAGE(AB23:AB37)</f>
+        <f t="shared" si="32"/>
         <v>86.8</v>
       </c>
       <c r="AC38" s="13">
-        <f>AVERAGE(AC23:AC37)</f>
+        <f t="shared" si="32"/>
         <v>44.466666666666669</v>
       </c>
       <c r="AD38" s="12">
-        <f>AVERAGE(AD23:AD37)</f>
+        <f t="shared" si="32"/>
         <v>412.66666666666669</v>
       </c>
       <c r="AE38" s="1">
-        <f>AVERAGE(AE23:AE37)</f>
+        <f t="shared" si="32"/>
         <v>900.26666666666665</v>
       </c>
       <c r="AF38" s="13">
-        <f>AVERAGE(AF23:AF37)</f>
+        <f t="shared" si="32"/>
         <v>487.6</v>
       </c>
       <c r="AG38" s="12">
-        <f>AVERAGE(AG23:AG37)</f>
+        <f t="shared" si="32"/>
         <v>57.866666666666667</v>
       </c>
       <c r="AH38" s="1">
-        <f>AVERAGE(AH23:AH37)</f>
+        <f t="shared" si="32"/>
         <v>218.06666666666666</v>
       </c>
       <c r="AI38" s="13">
-        <f>AVERAGE(AI23:AI37)</f>
+        <f t="shared" si="32"/>
         <v>160.19999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4722,18 +4722,18 @@
         <f>D39-C39</f>
         <v>123.99999999999997</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
+      <c r="F39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
       <c r="I39" s="18">
         <f>(100*E39)/D39</f>
         <v>42.6801284993116</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
-      <c r="M39" s="30"/>
+      <c r="M39" s="37"/>
       <c r="N39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4749,18 +4749,18 @@
         <f>P39-O39</f>
         <v>670.40000000000009</v>
       </c>
-      <c r="R39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="S39" s="20"/>
-      <c r="T39" s="21"/>
+      <c r="R39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34"/>
       <c r="U39" s="18">
         <f>(100*Q39)/P39</f>
         <v>52.759706190975876</v>
       </c>
       <c r="V39" s="16"/>
       <c r="W39" s="17"/>
-      <c r="Y39" s="30"/>
+      <c r="Y39" s="37"/>
       <c r="Z39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4776,11 +4776,11 @@
         <f>AB39-AA39</f>
         <v>692.26666666666654</v>
       </c>
-      <c r="AD39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="21"/>
+      <c r="AD39" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="34"/>
       <c r="AG39" s="18">
         <f>(100*AC39)/AB39</f>
         <v>57.443159816341208</v>
@@ -4789,7 +4789,7 @@
       <c r="AI39" s="17"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="28">
+      <c r="A40" s="35">
         <v>4</v>
       </c>
       <c r="B40" s="8">
@@ -4825,7 +4825,7 @@
         <f>J40-I40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="35">
         <v>4</v>
       </c>
       <c r="N40" s="8">
@@ -4861,7 +4861,7 @@
         <f>V40-U40</f>
         <v>147</v>
       </c>
-      <c r="Y40" s="28">
+      <c r="Y40" s="35">
         <v>4</v>
       </c>
       <c r="Z40" s="8">
@@ -4899,7 +4899,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="3">
         <v>2</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>25</v>
       </c>
       <c r="E41" s="13">
-        <f t="shared" ref="E41:E54" si="27">D41-C41</f>
+        <f t="shared" ref="E41:E54" si="33">D41-C41</f>
         <v>-9</v>
       </c>
       <c r="F41" s="12">
@@ -4920,7 +4920,7 @@
         <v>192</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" ref="H41:H54" si="28">G41-F41</f>
+        <f t="shared" ref="H41:H54" si="34">G41-F41</f>
         <v>114</v>
       </c>
       <c r="I41" s="12">
@@ -4930,10 +4930,10 @@
         <v>36</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" ref="K41:K54" si="29">J41-I41</f>
+        <f t="shared" ref="K41:K54" si="35">J41-I41</f>
         <v>18</v>
       </c>
-      <c r="M41" s="29"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="3">
         <v>2</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>98</v>
       </c>
       <c r="Q41" s="13">
-        <f t="shared" ref="Q41:Q54" si="30">P41-O41</f>
+        <f t="shared" ref="Q41:Q54" si="36">P41-O41</f>
         <v>59</v>
       </c>
       <c r="R41" s="12">
@@ -4954,7 +4954,7 @@
         <v>970</v>
       </c>
       <c r="T41" s="13">
-        <f t="shared" ref="T41:T54" si="31">S41-R41</f>
+        <f t="shared" ref="T41:T54" si="37">S41-R41</f>
         <v>742</v>
       </c>
       <c r="U41" s="12">
@@ -4964,10 +4964,10 @@
         <v>251</v>
       </c>
       <c r="W41" s="13">
-        <f t="shared" ref="W41:W54" si="32">V41-U41</f>
+        <f t="shared" ref="W41:W54" si="38">V41-U41</f>
         <v>178</v>
       </c>
-      <c r="Y41" s="29"/>
+      <c r="Y41" s="36"/>
       <c r="Z41" s="3">
         <v>2</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>100</v>
       </c>
       <c r="AC41" s="13">
-        <f t="shared" ref="AC41:AC54" si="33">AB41-AA41</f>
+        <f t="shared" ref="AC41:AC54" si="39">AB41-AA41</f>
         <v>59</v>
       </c>
       <c r="AD41" s="12">
@@ -4988,7 +4988,7 @@
         <v>659</v>
       </c>
       <c r="AF41" s="13">
-        <f t="shared" ref="AF41:AF54" si="34">AE41-AD41</f>
+        <f t="shared" ref="AF41:AF54" si="40">AE41-AD41</f>
         <v>211</v>
       </c>
       <c r="AG41" s="12">
@@ -4998,12 +4998,12 @@
         <v>165</v>
       </c>
       <c r="AI41" s="13">
-        <f t="shared" ref="AI41:AI54" si="35">AH41-AG41</f>
+        <f t="shared" ref="AI41:AI54" si="41">AH41-AG41</f>
         <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="F42" s="12">
@@ -5024,7 +5024,7 @@
         <v>189</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>88</v>
       </c>
       <c r="I42" s="12">
@@ -5034,10 +5034,10 @@
         <v>33</v>
       </c>
       <c r="K42" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>22</v>
       </c>
-      <c r="M42" s="29"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="3">
         <v>3</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>81</v>
       </c>
       <c r="Q42" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="R42" s="12">
@@ -5058,7 +5058,7 @@
         <v>777</v>
       </c>
       <c r="T42" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>337</v>
       </c>
       <c r="U42" s="12">
@@ -5068,10 +5068,10 @@
         <v>253</v>
       </c>
       <c r="W42" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
-      <c r="Y42" s="29"/>
+      <c r="Y42" s="36"/>
       <c r="Z42" s="3">
         <v>3</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>102</v>
       </c>
       <c r="AC42" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>63</v>
       </c>
       <c r="AD42" s="12">
@@ -5092,7 +5092,7 @@
         <v>869</v>
       </c>
       <c r="AF42" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>454</v>
       </c>
       <c r="AG42" s="12">
@@ -5102,12 +5102,12 @@
         <v>181</v>
       </c>
       <c r="AI42" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="29"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="3">
         <v>4</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="F43" s="12">
@@ -5128,7 +5128,7 @@
         <v>254</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>152</v>
       </c>
       <c r="I43" s="12">
@@ -5138,10 +5138,10 @@
         <v>35</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M43" s="29"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="3">
         <v>4</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>80</v>
       </c>
       <c r="Q43" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>52</v>
       </c>
       <c r="R43" s="12">
@@ -5162,7 +5162,7 @@
         <v>778</v>
       </c>
       <c r="T43" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>519</v>
       </c>
       <c r="U43" s="12">
@@ -5172,10 +5172,10 @@
         <v>249</v>
       </c>
       <c r="W43" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>172</v>
       </c>
-      <c r="Y43" s="29"/>
+      <c r="Y43" s="36"/>
       <c r="Z43" s="3">
         <v>4</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>85</v>
       </c>
       <c r="AC43" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>49</v>
       </c>
       <c r="AD43" s="12">
@@ -5196,7 +5196,7 @@
         <v>812</v>
       </c>
       <c r="AF43" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>557</v>
       </c>
       <c r="AG43" s="12">
@@ -5206,12 +5206,12 @@
         <v>167</v>
       </c>
       <c r="AI43" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>19</v>
       </c>
       <c r="E44" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="F44" s="12">
@@ -5232,7 +5232,7 @@
         <v>235</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>173</v>
       </c>
       <c r="I44" s="12">
@@ -5242,10 +5242,10 @@
         <v>37</v>
       </c>
       <c r="K44" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>25</v>
       </c>
-      <c r="M44" s="29"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="3">
         <v>5</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>80</v>
       </c>
       <c r="Q44" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="R44" s="12">
@@ -5266,7 +5266,7 @@
         <v>804</v>
       </c>
       <c r="T44" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>514</v>
       </c>
       <c r="U44" s="12">
@@ -5276,10 +5276,10 @@
         <v>271</v>
       </c>
       <c r="W44" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>195</v>
       </c>
-      <c r="Y44" s="29"/>
+      <c r="Y44" s="36"/>
       <c r="Z44" s="3">
         <v>5</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>85</v>
       </c>
       <c r="AC44" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>48</v>
       </c>
       <c r="AD44" s="12">
@@ -5300,7 +5300,7 @@
         <v>802</v>
       </c>
       <c r="AF44" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>540</v>
       </c>
       <c r="AG44" s="12">
@@ -5310,12 +5310,12 @@
         <v>159</v>
       </c>
       <c r="AI44" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="29"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="3">
         <v>6</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>19</v>
       </c>
       <c r="E45" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="F45" s="12">
@@ -5336,7 +5336,7 @@
         <v>246</v>
       </c>
       <c r="H45" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>154</v>
       </c>
       <c r="I45" s="12">
@@ -5346,10 +5346,10 @@
         <v>34</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>24</v>
       </c>
-      <c r="M45" s="29"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="3">
         <v>6</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>81</v>
       </c>
       <c r="Q45" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="R45" s="12">
@@ -5370,7 +5370,7 @@
         <v>978</v>
       </c>
       <c r="T45" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>721</v>
       </c>
       <c r="U45" s="12">
@@ -5380,10 +5380,10 @@
         <v>252</v>
       </c>
       <c r="W45" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y45" s="29"/>
+      <c r="Y45" s="36"/>
       <c r="Z45" s="3">
         <v>6</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>82</v>
       </c>
       <c r="AC45" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>45</v>
       </c>
       <c r="AD45" s="12">
@@ -5404,7 +5404,7 @@
         <v>789</v>
       </c>
       <c r="AF45" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>506</v>
       </c>
       <c r="AG45" s="12">
@@ -5414,12 +5414,12 @@
         <v>163</v>
       </c>
       <c r="AI45" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="3">
         <v>7</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="F46" s="12">
@@ -5440,7 +5440,7 @@
         <v>234</v>
       </c>
       <c r="H46" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>144</v>
       </c>
       <c r="I46" s="12">
@@ -5450,10 +5450,10 @@
         <v>33</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>21</v>
       </c>
-      <c r="M46" s="29"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="3">
         <v>7</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>83</v>
       </c>
       <c r="Q46" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
       <c r="R46" s="12">
@@ -5474,7 +5474,7 @@
         <v>966</v>
       </c>
       <c r="T46" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>663</v>
       </c>
       <c r="U46" s="12">
@@ -5484,10 +5484,10 @@
         <v>249</v>
       </c>
       <c r="W46" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>177</v>
       </c>
-      <c r="Y46" s="29"/>
+      <c r="Y46" s="36"/>
       <c r="Z46" s="3">
         <v>7</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>84</v>
       </c>
       <c r="AC46" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>46</v>
       </c>
       <c r="AD46" s="12">
@@ -5508,7 +5508,7 @@
         <v>813</v>
       </c>
       <c r="AF46" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>422</v>
       </c>
       <c r="AG46" s="12">
@@ -5518,12 +5518,12 @@
         <v>170</v>
       </c>
       <c r="AI46" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="29"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="3">
         <v>8</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="F47" s="12">
@@ -5544,7 +5544,7 @@
         <v>234</v>
       </c>
       <c r="H47" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>171</v>
       </c>
       <c r="I47" s="12">
@@ -5554,10 +5554,10 @@
         <v>37</v>
       </c>
       <c r="K47" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
-      <c r="M47" s="29"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="3">
         <v>8</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>78</v>
       </c>
       <c r="Q47" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="R47" s="12">
@@ -5578,7 +5578,7 @@
         <v>980</v>
       </c>
       <c r="T47" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>698</v>
       </c>
       <c r="U47" s="12">
@@ -5588,10 +5588,10 @@
         <v>263</v>
       </c>
       <c r="W47" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>194</v>
       </c>
-      <c r="Y47" s="29"/>
+      <c r="Y47" s="36"/>
       <c r="Z47" s="3">
         <v>8</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>85</v>
       </c>
       <c r="AC47" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>32</v>
       </c>
       <c r="AD47" s="12">
@@ -5612,7 +5612,7 @@
         <v>809</v>
       </c>
       <c r="AF47" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>550</v>
       </c>
       <c r="AG47" s="12">
@@ -5622,12 +5622,12 @@
         <v>161</v>
       </c>
       <c r="AI47" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="29"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="3">
         <v>9</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="F48" s="12">
@@ -5648,7 +5648,7 @@
         <v>238</v>
       </c>
       <c r="H48" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>98</v>
       </c>
       <c r="I48" s="12">
@@ -5658,10 +5658,10 @@
         <v>34</v>
       </c>
       <c r="K48" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>21</v>
       </c>
-      <c r="M48" s="29"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="3">
         <v>9</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>79</v>
       </c>
       <c r="Q48" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>51</v>
       </c>
       <c r="R48" s="12">
@@ -5682,7 +5682,7 @@
         <v>953</v>
       </c>
       <c r="T48" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>695</v>
       </c>
       <c r="U48" s="12">
@@ -5692,10 +5692,10 @@
         <v>253</v>
       </c>
       <c r="W48" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y48" s="29"/>
+      <c r="Y48" s="36"/>
       <c r="Z48" s="3">
         <v>9</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>84</v>
       </c>
       <c r="AC48" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>50</v>
       </c>
       <c r="AD48" s="12">
@@ -5716,7 +5716,7 @@
         <v>834</v>
       </c>
       <c r="AF48" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>422</v>
       </c>
       <c r="AG48" s="12">
@@ -5726,12 +5726,12 @@
         <v>169</v>
       </c>
       <c r="AI48" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="29"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="3">
         <v>10</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F49" s="12">
@@ -5752,7 +5752,7 @@
         <v>239</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>172</v>
       </c>
       <c r="I49" s="12">
@@ -5762,10 +5762,10 @@
         <v>33</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M49" s="29"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="3">
         <v>10</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>80</v>
       </c>
       <c r="Q49" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="R49" s="12">
@@ -5786,7 +5786,7 @@
         <v>970</v>
       </c>
       <c r="T49" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>707</v>
       </c>
       <c r="U49" s="12">
@@ -5796,10 +5796,10 @@
         <v>252</v>
       </c>
       <c r="W49" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>180</v>
       </c>
-      <c r="Y49" s="29"/>
+      <c r="Y49" s="36"/>
       <c r="Z49" s="3">
         <v>10</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>82</v>
       </c>
       <c r="AC49" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>47</v>
       </c>
       <c r="AD49" s="12">
@@ -5820,7 +5820,7 @@
         <v>791</v>
       </c>
       <c r="AF49" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>520</v>
       </c>
       <c r="AG49" s="12">
@@ -5830,12 +5830,12 @@
         <v>160</v>
       </c>
       <c r="AI49" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="3">
         <v>11</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="F50" s="12">
@@ -5856,7 +5856,7 @@
         <v>235</v>
       </c>
       <c r="H50" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>133</v>
       </c>
       <c r="I50" s="12">
@@ -5866,10 +5866,10 @@
         <v>34</v>
       </c>
       <c r="K50" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>22</v>
       </c>
-      <c r="M50" s="29"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="3">
         <v>11</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>82</v>
       </c>
       <c r="Q50" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>51</v>
       </c>
       <c r="R50" s="12">
@@ -5890,7 +5890,7 @@
         <v>958</v>
       </c>
       <c r="T50" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>586</v>
       </c>
       <c r="U50" s="12">
@@ -5900,10 +5900,10 @@
         <v>251</v>
       </c>
       <c r="W50" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>157</v>
       </c>
-      <c r="Y50" s="29"/>
+      <c r="Y50" s="36"/>
       <c r="Z50" s="3">
         <v>11</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>84</v>
       </c>
       <c r="AC50" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>48</v>
       </c>
       <c r="AD50" s="12">
@@ -5924,7 +5924,7 @@
         <v>812</v>
       </c>
       <c r="AF50" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>541</v>
       </c>
       <c r="AG50" s="12">
@@ -5934,12 +5934,12 @@
         <v>161</v>
       </c>
       <c r="AI50" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="3">
         <v>12</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>19</v>
       </c>
       <c r="E51" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="F51" s="12">
@@ -5960,7 +5960,7 @@
         <v>241</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>179</v>
       </c>
       <c r="I51" s="12">
@@ -5970,10 +5970,10 @@
         <v>34</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M51" s="29"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="3">
         <v>12</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>81</v>
       </c>
       <c r="Q51" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>51</v>
       </c>
       <c r="R51" s="12">
@@ -5994,7 +5994,7 @@
         <v>950</v>
       </c>
       <c r="T51" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>693</v>
       </c>
       <c r="U51" s="12">
@@ -6004,10 +6004,10 @@
         <v>250</v>
       </c>
       <c r="W51" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y51" s="29"/>
+      <c r="Y51" s="36"/>
       <c r="Z51" s="3">
         <v>12</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>83</v>
       </c>
       <c r="AC51" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>47</v>
       </c>
       <c r="AD51" s="12">
@@ -6028,7 +6028,7 @@
         <v>818</v>
       </c>
       <c r="AF51" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>525</v>
       </c>
       <c r="AG51" s="12">
@@ -6038,12 +6038,12 @@
         <v>161</v>
       </c>
       <c r="AI51" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="3">
         <v>13</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>23</v>
       </c>
       <c r="E52" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="F52" s="12">
@@ -6064,7 +6064,7 @@
         <v>250</v>
       </c>
       <c r="H52" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>77</v>
       </c>
       <c r="I52" s="12">
@@ -6074,10 +6074,10 @@
         <v>35</v>
       </c>
       <c r="K52" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>24</v>
       </c>
-      <c r="M52" s="29"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="3">
         <v>13</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>78</v>
       </c>
       <c r="Q52" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="R52" s="12">
@@ -6098,7 +6098,7 @@
         <v>963</v>
       </c>
       <c r="T52" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>709</v>
       </c>
       <c r="U52" s="12">
@@ -6108,10 +6108,10 @@
         <v>259</v>
       </c>
       <c r="W52" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>188</v>
       </c>
-      <c r="Y52" s="29"/>
+      <c r="Y52" s="36"/>
       <c r="Z52" s="3">
         <v>13</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>87</v>
       </c>
       <c r="AC52" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>52</v>
       </c>
       <c r="AD52" s="12">
@@ -6132,7 +6132,7 @@
         <v>810</v>
       </c>
       <c r="AF52" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>519</v>
       </c>
       <c r="AG52" s="12">
@@ -6142,12 +6142,12 @@
         <v>158</v>
       </c>
       <c r="AI52" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="3">
         <v>14</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F53" s="12">
@@ -6168,7 +6168,7 @@
         <v>236</v>
       </c>
       <c r="H53" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>174</v>
       </c>
       <c r="I53" s="12">
@@ -6178,10 +6178,10 @@
         <v>36</v>
       </c>
       <c r="K53" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M53" s="29"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="3">
         <v>14</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>78</v>
       </c>
       <c r="Q53" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>49</v>
       </c>
       <c r="R53" s="12">
@@ -6202,7 +6202,7 @@
         <v>962</v>
       </c>
       <c r="T53" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>544</v>
       </c>
       <c r="U53" s="12">
@@ -6212,10 +6212,10 @@
         <v>258</v>
       </c>
       <c r="W53" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>188</v>
       </c>
-      <c r="Y53" s="29"/>
+      <c r="Y53" s="36"/>
       <c r="Z53" s="3">
         <v>14</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>83</v>
       </c>
       <c r="AC53" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>48</v>
       </c>
       <c r="AD53" s="12">
@@ -6236,7 +6236,7 @@
         <v>801</v>
       </c>
       <c r="AF53" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>542</v>
       </c>
       <c r="AG53" s="12">
@@ -6246,12 +6246,12 @@
         <v>158</v>
       </c>
       <c r="AI53" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" s="29"/>
+      <c r="A54" s="36"/>
       <c r="B54" s="3">
         <v>15</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>17</v>
       </c>
       <c r="E54" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="F54" s="12">
@@ -6272,7 +6272,7 @@
         <v>241</v>
       </c>
       <c r="H54" s="13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>178</v>
       </c>
       <c r="I54" s="12">
@@ -6282,10 +6282,10 @@
         <v>40</v>
       </c>
       <c r="K54" s="13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
-      <c r="M54" s="29"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="3">
         <v>15</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>81</v>
       </c>
       <c r="Q54" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>48</v>
       </c>
       <c r="R54" s="12">
@@ -6306,7 +6306,7 @@
         <v>975</v>
       </c>
       <c r="T54" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>588</v>
       </c>
       <c r="U54" s="12">
@@ -6316,10 +6316,10 @@
         <v>251</v>
       </c>
       <c r="W54" s="13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>179</v>
       </c>
-      <c r="Y54" s="29"/>
+      <c r="Y54" s="36"/>
       <c r="Z54" s="3">
         <v>15</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="AC54" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>47</v>
       </c>
       <c r="AD54" s="12">
@@ -6340,7 +6340,7 @@
         <v>813</v>
       </c>
       <c r="AF54" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>404</v>
       </c>
       <c r="AG54" s="12">
@@ -6350,14 +6350,14 @@
         <v>159</v>
       </c>
       <c r="AI54" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" s="29"/>
+      <c r="A55" s="36"/>
       <c r="B55" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" s="12">
         <f>AVERAGE(C40:C54)</f>
@@ -6395,9 +6395,9 @@
         <f>AVERAGE(K40:K44)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="M55" s="29"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O55" s="12">
         <f>AVERAGE(O40:O54)</f>
@@ -6435,9 +6435,9 @@
         <f>AVERAGE(W40:W44)</f>
         <v>174.4</v>
       </c>
-      <c r="Y55" s="29"/>
+      <c r="Y55" s="36"/>
       <c r="Z55" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA55" s="12">
         <f>AVERAGE(AA40:AA54)</f>
@@ -6477,7 +6477,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6493,18 +6493,18 @@
         <f>D56-C56</f>
         <v>165.00000000000006</v>
       </c>
-      <c r="F56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="40"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42">
+      <c r="F56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="26">
         <f>(100*E56)/D56</f>
         <v>57.014512785072583</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="17"/>
-      <c r="M56" s="30"/>
+      <c r="M56" s="37"/>
       <c r="N56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6520,18 +6520,18 @@
         <f>P56-O56</f>
         <v>842.8</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="S56" s="40"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="42">
+      <c r="R56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56" s="39"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="26">
         <f>(100*Q56)/P56</f>
         <v>67.166082244182348</v>
       </c>
       <c r="V56" s="16"/>
       <c r="W56" s="17"/>
-      <c r="Y56" s="30"/>
+      <c r="Y56" s="37"/>
       <c r="Z56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6547,12 +6547,12 @@
         <f>AB56-AA56</f>
         <v>631.59999999999991</v>
       </c>
-      <c r="AD56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE56" s="40"/>
-      <c r="AF56" s="41"/>
-      <c r="AG56" s="42">
+      <c r="AD56" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="26">
         <f>(100*AC56)/AB56</f>
         <v>60.374713229671173</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="AI56" s="17"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="28">
+      <c r="A57" s="35">
         <v>8</v>
       </c>
       <c r="B57" s="8">
@@ -6596,7 +6596,7 @@
         <f>J57-I57</f>
         <v>-3</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M57" s="35">
         <v>8</v>
       </c>
       <c r="N57" s="8">
@@ -6632,7 +6632,7 @@
         <f>V57-U57</f>
         <v>146</v>
       </c>
-      <c r="Y57" s="28">
+      <c r="Y57" s="35">
         <v>8</v>
       </c>
       <c r="Z57" s="8">
@@ -6670,7 +6670,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
+      <c r="A58" s="36"/>
       <c r="B58" s="3">
         <v>2</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>27</v>
       </c>
       <c r="E58" s="13">
-        <f t="shared" ref="E58:E71" si="36">D58-C58</f>
+        <f t="shared" ref="E58:E71" si="42">D58-C58</f>
         <v>19</v>
       </c>
       <c r="F58" s="12">
@@ -6691,7 +6691,7 @@
         <v>198</v>
       </c>
       <c r="H58" s="13">
-        <f t="shared" ref="H58:H71" si="37">G58-F58</f>
+        <f t="shared" ref="H58:H71" si="43">G58-F58</f>
         <v>131</v>
       </c>
       <c r="I58" s="12">
@@ -6701,10 +6701,10 @@
         <v>35</v>
       </c>
       <c r="K58" s="13">
-        <f t="shared" ref="K58:K71" si="38">J58-I58</f>
+        <f t="shared" ref="K58:K71" si="44">J58-I58</f>
         <v>22</v>
       </c>
-      <c r="M58" s="29"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="3">
         <v>2</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>864</v>
       </c>
       <c r="T58" s="13">
-        <f t="shared" ref="T58:T71" si="39">S58-R58</f>
+        <f t="shared" ref="T58:T71" si="45">S58-R58</f>
         <v>529</v>
       </c>
       <c r="U58" s="12">
@@ -6735,10 +6735,10 @@
         <v>268</v>
       </c>
       <c r="W58" s="13">
-        <f t="shared" ref="W58:W71" si="40">V58-U58</f>
+        <f t="shared" ref="W58:W71" si="46">V58-U58</f>
         <v>163</v>
       </c>
-      <c r="Y58" s="29"/>
+      <c r="Y58" s="36"/>
       <c r="Z58" s="3">
         <v>2</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>93</v>
       </c>
       <c r="AC58" s="13">
-        <f t="shared" ref="AC58:AC71" si="41">AB58-AA58</f>
+        <f t="shared" ref="AC58:AC71" si="47">AB58-AA58</f>
         <v>57</v>
       </c>
       <c r="AD58" s="12">
@@ -6759,7 +6759,7 @@
         <v>690</v>
       </c>
       <c r="AF58" s="13">
-        <f t="shared" ref="AF58:AF71" si="42">AE58-AD58</f>
+        <f t="shared" ref="AF58:AF71" si="48">AE58-AD58</f>
         <v>474</v>
       </c>
       <c r="AG58" s="12">
@@ -6769,12 +6769,12 @@
         <v>172</v>
       </c>
       <c r="AI58" s="13">
-        <f t="shared" ref="AI58:AI71" si="43">AH58-AG58</f>
+        <f t="shared" ref="AI58:AI71" si="49">AH58-AG58</f>
         <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="36"/>
       <c r="B59" s="3">
         <v>3</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>19</v>
       </c>
       <c r="E59" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F59" s="12">
@@ -6795,7 +6795,7 @@
         <v>199</v>
       </c>
       <c r="H59" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>117</v>
       </c>
       <c r="I59" s="12">
@@ -6805,10 +6805,10 @@
         <v>35</v>
       </c>
       <c r="K59" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M59" s="29"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="3">
         <v>3</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>80</v>
       </c>
       <c r="Q59" s="13">
-        <f t="shared" ref="Q58:Q71" si="44">P59-O59</f>
+        <f t="shared" ref="Q59:Q71" si="50">P59-O59</f>
         <v>46</v>
       </c>
       <c r="R59" s="12">
@@ -6829,7 +6829,7 @@
         <v>784</v>
       </c>
       <c r="T59" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>512</v>
       </c>
       <c r="U59" s="12">
@@ -6839,10 +6839,10 @@
         <v>248</v>
       </c>
       <c r="W59" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>175</v>
       </c>
-      <c r="Y59" s="29"/>
+      <c r="Y59" s="36"/>
       <c r="Z59" s="3">
         <v>3</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>82</v>
       </c>
       <c r="AC59" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>40</v>
       </c>
       <c r="AD59" s="12">
@@ -6863,7 +6863,7 @@
         <v>648</v>
       </c>
       <c r="AF59" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>290</v>
       </c>
       <c r="AG59" s="12">
@@ -6873,12 +6873,12 @@
         <v>159</v>
       </c>
       <c r="AI59" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
+      <c r="A60" s="36"/>
       <c r="B60" s="3">
         <v>4</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>19</v>
       </c>
       <c r="E60" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F60" s="12">
@@ -6899,7 +6899,7 @@
         <v>243</v>
       </c>
       <c r="H60" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>152</v>
       </c>
       <c r="I60" s="12">
@@ -6909,10 +6909,10 @@
         <v>34</v>
       </c>
       <c r="K60" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="M60" s="29"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="3">
         <v>4</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>92</v>
       </c>
       <c r="Q60" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>50</v>
       </c>
       <c r="R60" s="12">
@@ -6933,7 +6933,7 @@
         <v>1204</v>
       </c>
       <c r="T60" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>892</v>
       </c>
       <c r="U60" s="12">
@@ -6943,10 +6943,10 @@
         <v>261</v>
       </c>
       <c r="W60" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>187</v>
       </c>
-      <c r="Y60" s="29"/>
+      <c r="Y60" s="36"/>
       <c r="Z60" s="3">
         <v>4</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>84</v>
       </c>
       <c r="AC60" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>46</v>
       </c>
       <c r="AD60" s="12">
@@ -6967,7 +6967,7 @@
         <v>845</v>
       </c>
       <c r="AF60" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>562</v>
       </c>
       <c r="AG60" s="12">
@@ -6977,12 +6977,12 @@
         <v>162</v>
       </c>
       <c r="AI60" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="3">
         <v>5</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F61" s="12">
@@ -7003,7 +7003,7 @@
         <v>234</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>153</v>
       </c>
       <c r="I61" s="12">
@@ -7013,10 +7013,10 @@
         <v>34</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="M61" s="29"/>
+      <c r="M61" s="36"/>
       <c r="N61" s="3">
         <v>5</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>85</v>
       </c>
       <c r="Q61" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>55</v>
       </c>
       <c r="R61" s="12">
@@ -7037,7 +7037,7 @@
         <v>1224</v>
       </c>
       <c r="T61" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>877</v>
       </c>
       <c r="U61" s="12">
@@ -7047,10 +7047,10 @@
         <v>252</v>
       </c>
       <c r="W61" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>135</v>
       </c>
-      <c r="Y61" s="29"/>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="3">
         <v>5</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>86</v>
       </c>
       <c r="AC61" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>44</v>
       </c>
       <c r="AD61" s="12">
@@ -7071,7 +7071,7 @@
         <v>828</v>
       </c>
       <c r="AF61" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>516</v>
       </c>
       <c r="AG61" s="12">
@@ -7081,12 +7081,12 @@
         <v>159</v>
       </c>
       <c r="AI61" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="29"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="3">
         <v>6</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>19</v>
       </c>
       <c r="E62" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F62" s="12">
@@ -7107,7 +7107,7 @@
         <v>237</v>
       </c>
       <c r="H62" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>145</v>
       </c>
       <c r="I62" s="12">
@@ -7117,10 +7117,10 @@
         <v>34</v>
       </c>
       <c r="K62" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M62" s="29"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="3">
         <v>6</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>92</v>
       </c>
       <c r="Q62" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>43</v>
       </c>
       <c r="R62" s="12">
@@ -7141,7 +7141,7 @@
         <v>1216</v>
       </c>
       <c r="T62" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>843</v>
       </c>
       <c r="U62" s="12">
@@ -7151,10 +7151,10 @@
         <v>255</v>
       </c>
       <c r="W62" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>145</v>
       </c>
-      <c r="Y62" s="29"/>
+      <c r="Y62" s="36"/>
       <c r="Z62" s="3">
         <v>6</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>85</v>
       </c>
       <c r="AC62" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>40</v>
       </c>
       <c r="AD62" s="12">
@@ -7175,7 +7175,7 @@
         <v>818</v>
       </c>
       <c r="AF62" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>597</v>
       </c>
       <c r="AG62" s="12">
@@ -7185,12 +7185,12 @@
         <v>163</v>
       </c>
       <c r="AI62" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
+      <c r="A63" s="36"/>
       <c r="B63" s="3">
         <v>7</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>18</v>
       </c>
       <c r="E63" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F63" s="12">
@@ -7211,7 +7211,7 @@
         <v>255</v>
       </c>
       <c r="H63" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>171</v>
       </c>
       <c r="I63" s="12">
@@ -7221,10 +7221,10 @@
         <v>37</v>
       </c>
       <c r="K63" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
-      <c r="M63" s="29"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="3">
         <v>7</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>79</v>
       </c>
       <c r="Q63" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>45</v>
       </c>
       <c r="R63" s="12">
@@ -7245,7 +7245,7 @@
         <v>1195</v>
       </c>
       <c r="T63" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>735</v>
       </c>
       <c r="U63" s="12">
@@ -7255,10 +7255,10 @@
         <v>264</v>
       </c>
       <c r="W63" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>168</v>
       </c>
-      <c r="Y63" s="29"/>
+      <c r="Y63" s="36"/>
       <c r="Z63" s="3">
         <v>7</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>85</v>
       </c>
       <c r="AC63" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>38</v>
       </c>
       <c r="AD63" s="12">
@@ -7279,7 +7279,7 @@
         <v>839</v>
       </c>
       <c r="AF63" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>553</v>
       </c>
       <c r="AG63" s="12">
@@ -7289,12 +7289,12 @@
         <v>167</v>
       </c>
       <c r="AI63" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
+      <c r="A64" s="36"/>
       <c r="B64" s="3">
         <v>8</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="F64" s="12">
@@ -7315,7 +7315,7 @@
         <v>235</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>129</v>
       </c>
       <c r="I64" s="12">
@@ -7325,10 +7325,10 @@
         <v>34</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
-      <c r="M64" s="29"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="3">
         <v>8</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>86</v>
       </c>
       <c r="Q64" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>51</v>
       </c>
       <c r="R64" s="12">
@@ -7349,7 +7349,7 @@
         <v>1207</v>
       </c>
       <c r="T64" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>845</v>
       </c>
       <c r="U64" s="12">
@@ -7359,10 +7359,10 @@
         <v>273</v>
       </c>
       <c r="W64" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>186</v>
       </c>
-      <c r="Y64" s="29"/>
+      <c r="Y64" s="36"/>
       <c r="Z64" s="3">
         <v>8</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>87</v>
       </c>
       <c r="AC64" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>50</v>
       </c>
       <c r="AD64" s="12">
@@ -7383,7 +7383,7 @@
         <v>828</v>
       </c>
       <c r="AF64" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>509</v>
       </c>
       <c r="AG64" s="12">
@@ -7393,12 +7393,12 @@
         <v>168</v>
       </c>
       <c r="AI64" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
+      <c r="A65" s="36"/>
       <c r="B65" s="3">
         <v>9</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>20</v>
       </c>
       <c r="E65" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F65" s="12">
@@ -7419,7 +7419,7 @@
         <v>251</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>159</v>
       </c>
       <c r="I65" s="12">
@@ -7429,10 +7429,10 @@
         <v>36</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
-      <c r="M65" s="29"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="3">
         <v>9</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="Q65" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>45</v>
       </c>
       <c r="R65" s="12">
@@ -7453,7 +7453,7 @@
         <v>1179</v>
       </c>
       <c r="T65" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>790</v>
       </c>
       <c r="U65" s="12">
@@ -7463,10 +7463,10 @@
         <v>261</v>
       </c>
       <c r="W65" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>173</v>
       </c>
-      <c r="Y65" s="29"/>
+      <c r="Y65" s="36"/>
       <c r="Z65" s="3">
         <v>9</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>87</v>
       </c>
       <c r="AC65" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>33</v>
       </c>
       <c r="AD65" s="12">
@@ -7487,7 +7487,7 @@
         <v>827</v>
       </c>
       <c r="AF65" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>604</v>
       </c>
       <c r="AG65" s="12">
@@ -7497,12 +7497,12 @@
         <v>165</v>
       </c>
       <c r="AI65" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="29"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="3">
         <v>10</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F66" s="12">
@@ -7523,7 +7523,7 @@
         <v>255</v>
       </c>
       <c r="H66" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>174</v>
       </c>
       <c r="I66" s="12">
@@ -7533,10 +7533,10 @@
         <v>44</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>27</v>
       </c>
-      <c r="M66" s="29"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="3">
         <v>10</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>98</v>
       </c>
       <c r="Q66" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>59</v>
       </c>
       <c r="R66" s="12">
@@ -7557,7 +7557,7 @@
         <v>1208</v>
       </c>
       <c r="T66" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>834</v>
       </c>
       <c r="U66" s="12">
@@ -7567,10 +7567,10 @@
         <v>266</v>
       </c>
       <c r="W66" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>188</v>
       </c>
-      <c r="Y66" s="29"/>
+      <c r="Y66" s="36"/>
       <c r="Z66" s="3">
         <v>10</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>85</v>
       </c>
       <c r="AC66" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>43</v>
       </c>
       <c r="AD66" s="12">
@@ -7591,7 +7591,7 @@
         <v>804</v>
       </c>
       <c r="AF66" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>431</v>
       </c>
       <c r="AG66" s="12">
@@ -7601,12 +7601,12 @@
         <v>163</v>
       </c>
       <c r="AI66" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="3">
         <v>11</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>19</v>
       </c>
       <c r="E67" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
       <c r="F67" s="12">
@@ -7627,7 +7627,7 @@
         <v>244</v>
       </c>
       <c r="H67" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>178</v>
       </c>
       <c r="I67" s="12">
@@ -7637,10 +7637,10 @@
         <v>36</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
-      <c r="M67" s="29"/>
+      <c r="M67" s="36"/>
       <c r="N67" s="3">
         <v>11</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>83</v>
       </c>
       <c r="Q67" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>37</v>
       </c>
       <c r="R67" s="12">
@@ -7661,7 +7661,7 @@
         <v>1235</v>
       </c>
       <c r="T67" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>825</v>
       </c>
       <c r="U67" s="12">
@@ -7671,10 +7671,10 @@
         <v>249</v>
       </c>
       <c r="W67" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>149</v>
       </c>
-      <c r="Y67" s="29"/>
+      <c r="Y67" s="36"/>
       <c r="Z67" s="3">
         <v>11</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>83</v>
       </c>
       <c r="AC67" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>24</v>
       </c>
       <c r="AD67" s="12">
@@ -7695,7 +7695,7 @@
         <v>844</v>
       </c>
       <c r="AF67" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>526</v>
       </c>
       <c r="AG67" s="12">
@@ -7705,12 +7705,12 @@
         <v>177</v>
       </c>
       <c r="AI67" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" s="29"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="3">
         <v>12</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>18</v>
       </c>
       <c r="E68" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F68" s="12">
@@ -7731,7 +7731,7 @@
         <v>244</v>
       </c>
       <c r="H68" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>138</v>
       </c>
       <c r="I68" s="12">
@@ -7741,10 +7741,10 @@
         <v>34</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M68" s="29"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="3">
         <v>12</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>78</v>
       </c>
       <c r="Q68" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>47</v>
       </c>
       <c r="R68" s="12">
@@ -7765,7 +7765,7 @@
         <v>1227</v>
       </c>
       <c r="T68" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>971</v>
       </c>
       <c r="U68" s="12">
@@ -7775,10 +7775,10 @@
         <v>266</v>
       </c>
       <c r="W68" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>181</v>
       </c>
-      <c r="Y68" s="29"/>
+      <c r="Y68" s="36"/>
       <c r="Z68" s="3">
         <v>12</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>88</v>
       </c>
       <c r="AC68" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>42</v>
       </c>
       <c r="AD68" s="12">
@@ -7799,7 +7799,7 @@
         <v>861</v>
       </c>
       <c r="AF68" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>524</v>
       </c>
       <c r="AG68" s="12">
@@ -7809,12 +7809,12 @@
         <v>165</v>
       </c>
       <c r="AI68" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" s="29"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="3">
         <v>13</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F69" s="12">
@@ -7835,7 +7835,7 @@
         <v>238</v>
       </c>
       <c r="H69" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>114</v>
       </c>
       <c r="I69" s="12">
@@ -7845,10 +7845,10 @@
         <v>37</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>22</v>
       </c>
-      <c r="M69" s="29"/>
+      <c r="M69" s="36"/>
       <c r="N69" s="3">
         <v>13</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>78</v>
       </c>
       <c r="Q69" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>45</v>
       </c>
       <c r="R69" s="12">
@@ -7869,7 +7869,7 @@
         <v>1194</v>
       </c>
       <c r="T69" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>914</v>
       </c>
       <c r="U69" s="12">
@@ -7879,10 +7879,10 @@
         <v>254</v>
       </c>
       <c r="W69" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>179</v>
       </c>
-      <c r="Y69" s="29"/>
+      <c r="Y69" s="36"/>
       <c r="Z69" s="3">
         <v>13</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>90</v>
       </c>
       <c r="AC69" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>55</v>
       </c>
       <c r="AD69" s="12">
@@ -7903,7 +7903,7 @@
         <v>801</v>
       </c>
       <c r="AF69" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>415</v>
       </c>
       <c r="AG69" s="12">
@@ -7913,12 +7913,12 @@
         <v>159</v>
       </c>
       <c r="AI69" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" s="29"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="3">
         <v>14</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F70" s="12">
@@ -7939,7 +7939,7 @@
         <v>237</v>
       </c>
       <c r="H70" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>82</v>
       </c>
       <c r="I70" s="12">
@@ -7949,10 +7949,10 @@
         <v>34</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M70" s="29"/>
+      <c r="M70" s="36"/>
       <c r="N70" s="3">
         <v>14</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>80</v>
       </c>
       <c r="Q70" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>52</v>
       </c>
       <c r="R70" s="12">
@@ -7973,7 +7973,7 @@
         <v>1243</v>
       </c>
       <c r="T70" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>818</v>
       </c>
       <c r="U70" s="12">
@@ -7983,10 +7983,10 @@
         <v>254</v>
       </c>
       <c r="W70" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>184</v>
       </c>
-      <c r="Y70" s="29"/>
+      <c r="Y70" s="36"/>
       <c r="Z70" s="3">
         <v>14</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>83</v>
       </c>
       <c r="AC70" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>47</v>
       </c>
       <c r="AD70" s="12">
@@ -8007,7 +8007,7 @@
         <v>806</v>
       </c>
       <c r="AF70" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>434</v>
       </c>
       <c r="AG70" s="12">
@@ -8017,12 +8017,12 @@
         <v>157</v>
       </c>
       <c r="AI70" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="3">
         <v>15</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="F71" s="12">
@@ -8043,7 +8043,7 @@
         <v>235</v>
       </c>
       <c r="H71" s="13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>170</v>
       </c>
       <c r="I71" s="12">
@@ -8053,10 +8053,10 @@
         <v>37</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>23</v>
       </c>
-      <c r="M71" s="29"/>
+      <c r="M71" s="36"/>
       <c r="N71" s="3">
         <v>15</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>80</v>
       </c>
       <c r="Q71" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>50</v>
       </c>
       <c r="R71" s="12">
@@ -8077,7 +8077,7 @@
         <v>1239</v>
       </c>
       <c r="T71" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>906</v>
       </c>
       <c r="U71" s="12">
@@ -8087,10 +8087,10 @@
         <v>255</v>
       </c>
       <c r="W71" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>183</v>
       </c>
-      <c r="Y71" s="29"/>
+      <c r="Y71" s="36"/>
       <c r="Z71" s="3">
         <v>15</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>84</v>
       </c>
       <c r="AC71" s="13">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>40</v>
       </c>
       <c r="AD71" s="12">
@@ -8111,7 +8111,7 @@
         <v>797</v>
       </c>
       <c r="AF71" s="13">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>539</v>
       </c>
       <c r="AG71" s="12">
@@ -8121,14 +8121,14 @@
         <v>162</v>
       </c>
       <c r="AI71" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72" s="12">
         <f>AVERAGE(C57:C71)</f>
@@ -8166,9 +8166,9 @@
         <f>AVERAGE(K57:K61)</f>
         <v>16</v>
       </c>
-      <c r="M72" s="29"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O72" s="12">
         <f>AVERAGE(O57:O71)</f>
@@ -8206,9 +8206,9 @@
         <f>AVERAGE(W57:W61)</f>
         <v>161.19999999999999</v>
       </c>
-      <c r="Y72" s="29"/>
+      <c r="Y72" s="36"/>
       <c r="Z72" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA72" s="12">
         <f>AVERAGE(AA57:AA71)</f>
@@ -8248,797 +8248,798 @@
       </c>
     </row>
     <row r="73" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="20">
         <f>SUM(C72,F72,I72)</f>
         <v>124.93333333333332</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="21">
         <f>SUM(D72,G72,J72)</f>
         <v>293.39999999999998</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="22">
         <f>D73-C73</f>
         <v>168.46666666666664</v>
       </c>
-      <c r="F73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="40"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="43">
+      <c r="F73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="39"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="27">
         <f>(100*E73)/D73</f>
         <v>57.418768461713242</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="32" t="s">
+      <c r="J73" s="21"/>
+      <c r="K73" s="22"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O73" s="33">
+      <c r="O73" s="20">
         <f>SUM(O72,R72,U72)</f>
         <v>483.8</v>
       </c>
-      <c r="P73" s="34">
+      <c r="P73" s="21">
         <f>SUM(P72,S72,V72)</f>
         <v>1478.2</v>
       </c>
-      <c r="Q73" s="35">
+      <c r="Q73" s="22">
         <f>P73-O73</f>
         <v>994.40000000000009</v>
       </c>
-      <c r="R73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="S73" s="40"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="43">
+      <c r="R73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73" s="39"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="27">
         <f>(100*Q73)/P73</f>
         <v>67.271005276687873</v>
       </c>
-      <c r="V73" s="34"/>
-      <c r="W73" s="35"/>
-      <c r="Y73" s="31"/>
-      <c r="Z73" s="32" t="s">
+      <c r="V73" s="21"/>
+      <c r="W73" s="22"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AA73" s="33">
+      <c r="AA73" s="20">
         <f>SUM(AA72,AD72,AG72)</f>
         <v>408.13333333333333</v>
       </c>
-      <c r="AB73" s="34">
+      <c r="AB73" s="21">
         <f>SUM(AB72,AE72,AH72)</f>
         <v>1043.6666666666667</v>
       </c>
-      <c r="AC73" s="35">
+      <c r="AC73" s="22">
         <f>AB73-AA73</f>
         <v>635.53333333333342</v>
       </c>
-      <c r="AD73" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="43">
+      <c r="AD73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE73" s="39"/>
+      <c r="AF73" s="40"/>
+      <c r="AG73" s="27">
         <f>(100*AC73)/AB73</f>
         <v>60.894282976684771</v>
       </c>
-      <c r="AH73" s="34"/>
-      <c r="AI73" s="35"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="22"/>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="36"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="50"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="50"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="50"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="31"/>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="50"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="31"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="50"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="31"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="50"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="31"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="50"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="31"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="50"/>
+      <c r="A83" s="24"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="31"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="50"/>
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="31"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="50"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="31"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="50"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="31"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="50"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="31"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="50"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="31"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="50"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="31"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="50"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="31"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="50"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="31"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
-      <c r="L92" s="50"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="31"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="50"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="31"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
-      <c r="L94" s="50"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="31"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50"/>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="31"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50"/>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="31"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
-      <c r="L100" s="50"/>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="31"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="50"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="31"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="50"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="31"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="50"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="31"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
-      <c r="L104" s="50"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="31"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="50"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="31"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="50"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="31"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="50"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="31"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
-      <c r="L108" s="50"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="31"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="50"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="31"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
-      <c r="L110" s="50"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="31"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="50"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="31"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
-      <c r="L112" s="50"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="31"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="50"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="31"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
-      <c r="L114" s="50"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="31"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="50"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="31"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
-      <c r="L116" s="50"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="31"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="50"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="31"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="50"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="50"/>
-      <c r="I118" s="50"/>
-      <c r="J118" s="50"/>
-      <c r="K118" s="50"/>
-      <c r="L118" s="50"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+      <c r="J118" s="31"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="31"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="50"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
-      <c r="L119" s="50"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="31"/>
+      <c r="K119" s="31"/>
+      <c r="L119" s="31"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" s="50"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="50"/>
-      <c r="I120" s="50"/>
-      <c r="J120" s="50"/>
-      <c r="K120" s="50"/>
-      <c r="L120" s="50"/>
+      <c r="A120" s="31"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="31"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A6:A22"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A57:A73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="M40:M56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="M57:M73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="Y23:Y39"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="M6:M22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="M23:M39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="Y6:Y22"/>
+    <mergeCell ref="AD22:AF22"/>
     <mergeCell ref="AD39:AF39"/>
     <mergeCell ref="Y40:Y56"/>
     <mergeCell ref="AD56:AF56"/>
     <mergeCell ref="Y57:Y73"/>
     <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="Y6:Y22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="M6:M22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="M23:M39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="M40:M56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="M57:M73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="Y23:Y39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:A56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="A57:A73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="A23:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Tests/DivisionPerformanceStressTests.xlsx
+++ b/Tests/DivisionPerformanceStressTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tony/Desktop/Lenguajes/Git Repo/SocialDistancing/Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF28E35-3A7B-0C49-A66E-29155AD2A8BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E1640-F920-0B45-989F-B68583AE214A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{8E3CAF62-04B1-184C-99F9-BBF229381B45}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>As we can see the overall procesing time is faster in the parallel approach for all tests</t>
   </si>
   <si>
-    <t>The number of division in the image improves the performance, however, more than 4 tasks will not improve the performace that much beacause of the number of CPUs in the machine (4)</t>
-  </si>
-  <si>
     <t>Step2.1</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Step2.3</t>
+  </si>
+  <si>
+    <t>The number of division in the image improves the performance (more percentage of time is saved), however, more than 4 tasks will not improve the performace that much because of the number of CPUs in the machine (4)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,34 +638,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,14 +665,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,17 +1018,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87019612-A4D8-5141-A67E-972E276781F1}">
   <dimension ref="A1:AI122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4:AI4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
@@ -1036,68 +1043,71 @@
         <v>14</v>
       </c>
       <c r="L2" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="M3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="52"/>
+      <c r="Y3" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="53"/>
+    </row>
+    <row r="4" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="35" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25"/>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="47"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="40"/>
       <c r="X4" s="2"/>
-      <c r="AA4" s="42" t="s">
+      <c r="AA4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="45" t="s">
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="47"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="40"/>
     </row>
     <row r="5" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1203,7 +1213,7 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="35">
+      <c r="A6" s="41">
         <v>2</v>
       </c>
       <c r="B6" s="8">
@@ -1240,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="35">
+      <c r="M6" s="41">
         <v>2</v>
       </c>
       <c r="N6" s="8">
@@ -1277,7 +1287,7 @@
         <v>115</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="35">
+      <c r="Y6" s="41">
         <v>2</v>
       </c>
       <c r="Z6" s="8">
@@ -1315,7 +1325,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="3">
         <v>2</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="36"/>
+      <c r="Y7" s="42"/>
       <c r="Z7" s="3">
         <v>2</v>
       </c>
@@ -1421,7 +1431,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1456,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="42"/>
       <c r="N8" s="3">
         <v>3</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>123</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="36"/>
+      <c r="Y8" s="42"/>
       <c r="Z8" s="3">
         <v>3</v>
       </c>
@@ -1527,7 +1537,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1562,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="42"/>
       <c r="N9" s="3">
         <v>4</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>133</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="36"/>
+      <c r="Y9" s="42"/>
       <c r="Z9" s="3">
         <v>4</v>
       </c>
@@ -1633,7 +1643,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1668,7 +1678,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="3">
         <v>5</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>129</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="36"/>
+      <c r="Y10" s="42"/>
       <c r="Z10" s="3">
         <v>5</v>
       </c>
@@ -1739,7 +1749,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="3">
         <v>6</v>
       </c>
@@ -1809,7 +1819,7 @@
         <v>115</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="36"/>
+      <c r="Y11" s="42"/>
       <c r="Z11" s="3">
         <v>6</v>
       </c>
@@ -1845,7 +1855,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="3">
         <v>7</v>
       </c>
@@ -1915,7 +1925,7 @@
         <v>125</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="36"/>
+      <c r="Y12" s="42"/>
       <c r="Z12" s="3">
         <v>7</v>
       </c>
@@ -1951,7 +1961,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="3">
         <v>8</v>
       </c>
@@ -2021,7 +2031,7 @@
         <v>124</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="36"/>
+      <c r="Y13" s="42"/>
       <c r="Z13" s="3">
         <v>8</v>
       </c>
@@ -2057,7 +2067,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="3">
         <v>9</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>126</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="36"/>
+      <c r="Y14" s="42"/>
       <c r="Z14" s="3">
         <v>9</v>
       </c>
@@ -2163,7 +2173,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="3">
         <v>10</v>
       </c>
@@ -2233,7 +2243,7 @@
         <v>133</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="36"/>
+      <c r="Y15" s="42"/>
       <c r="Z15" s="3">
         <v>10</v>
       </c>
@@ -2269,7 +2279,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="3">
         <v>11</v>
       </c>
@@ -2339,7 +2349,7 @@
         <v>134</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="36"/>
+      <c r="Y16" s="42"/>
       <c r="Z16" s="3">
         <v>11</v>
       </c>
@@ -2375,7 +2385,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="3">
         <v>12</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>134</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="36"/>
+      <c r="Y17" s="42"/>
       <c r="Z17" s="3">
         <v>12</v>
       </c>
@@ -2481,7 +2491,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="3">
         <v>13</v>
       </c>
@@ -2551,7 +2561,7 @@
         <v>120</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="36"/>
+      <c r="Y18" s="42"/>
       <c r="Z18" s="3">
         <v>13</v>
       </c>
@@ -2587,7 +2597,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="3">
         <v>14</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>120</v>
       </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="36"/>
+      <c r="Y19" s="42"/>
       <c r="Z19" s="3">
         <v>14</v>
       </c>
@@ -2693,7 +2703,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="3">
         <v>15</v>
       </c>
@@ -2763,7 +2773,7 @@
         <v>118</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="36"/>
+      <c r="Y20" s="42"/>
       <c r="Z20" s="3">
         <v>15</v>
       </c>
@@ -2799,7 +2809,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>13.933333333333334</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2881,7 +2891,7 @@
         <v>124.53333333333333</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="36"/>
+      <c r="Y21" s="42"/>
       <c r="Z21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2923,7 +2933,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2939,11 +2949,11 @@
         <f>D22-C22</f>
         <v>117.4666666666667</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="28">
         <f>(100*E22)/D22</f>
         <v>40.796480666821033</v>
@@ -2951,7 +2961,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="17"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="37"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2967,11 +2977,11 @@
         <f>P22-O22</f>
         <v>635.13333333333333</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="50"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="28">
         <f>(100*Q22)/P22</f>
         <v>48.46619524851198</v>
@@ -2979,7 +2989,7 @@
       <c r="V22" s="16"/>
       <c r="W22" s="17"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="37"/>
+      <c r="Y22" s="43"/>
       <c r="Z22" s="14" t="s">
         <v>5</v>
       </c>
@@ -2995,11 +3005,11 @@
         <f>AB22-AA22</f>
         <v>323.13333333333321</v>
       </c>
-      <c r="AD22" s="48" t="s">
+      <c r="AD22" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="50"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34"/>
       <c r="AG22" s="28">
         <f>(100*AC22)/AB22</f>
         <v>32.872160054255673</v>
@@ -3008,7 +3018,7 @@
       <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="41">
         <v>3</v>
       </c>
       <c r="B23" s="8">
@@ -3045,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="35">
+      <c r="M23" s="41">
         <v>3</v>
       </c>
       <c r="N23" s="8">
@@ -3082,7 +3092,7 @@
         <v>134</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="35">
+      <c r="Y23" s="41">
         <v>3</v>
       </c>
       <c r="Z23" s="8">
@@ -3120,7 +3130,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="3">
         <v>2</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="3">
         <v>2</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>159</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="36"/>
+      <c r="Y24" s="42"/>
       <c r="Z24" s="3">
         <v>2</v>
       </c>
@@ -3226,7 +3236,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="3">
         <v>3</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>26</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="3">
         <v>3</v>
       </c>
@@ -3296,7 +3306,7 @@
         <v>187</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="36"/>
+      <c r="Y25" s="42"/>
       <c r="Z25" s="3">
         <v>3</v>
       </c>
@@ -3332,7 +3342,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3">
         <v>4</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>-61</v>
       </c>
       <c r="L26" s="2"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="42"/>
       <c r="N26" s="3">
         <v>4</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>178</v>
       </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="36"/>
+      <c r="Y26" s="42"/>
       <c r="Z26" s="3">
         <v>4</v>
       </c>
@@ -3438,7 +3448,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="3">
         <v>5</v>
       </c>
@@ -3473,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="42"/>
       <c r="N27" s="3">
         <v>5</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>180</v>
       </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="36"/>
+      <c r="Y27" s="42"/>
       <c r="Z27" s="3">
         <v>5</v>
       </c>
@@ -3544,7 +3554,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3">
         <v>6</v>
       </c>
@@ -3578,7 +3588,7 @@
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="M28" s="36"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="3">
         <v>6</v>
       </c>
@@ -3612,7 +3622,7 @@
         <f t="shared" si="26"/>
         <v>175</v>
       </c>
-      <c r="Y28" s="36"/>
+      <c r="Y28" s="42"/>
       <c r="Z28" s="3">
         <v>6</v>
       </c>
@@ -3648,7 +3658,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="3">
         <v>7</v>
       </c>
@@ -3682,7 +3692,7 @@
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="M29" s="36"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="3">
         <v>7</v>
       </c>
@@ -3716,7 +3726,7 @@
         <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y29" s="36"/>
+      <c r="Y29" s="42"/>
       <c r="Z29" s="3">
         <v>7</v>
       </c>
@@ -3752,7 +3762,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3">
         <v>8</v>
       </c>
@@ -3786,7 +3796,7 @@
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M30" s="36"/>
+      <c r="M30" s="42"/>
       <c r="N30" s="3">
         <v>8</v>
       </c>
@@ -3820,7 +3830,7 @@
         <f t="shared" si="26"/>
         <v>172</v>
       </c>
-      <c r="Y30" s="36"/>
+      <c r="Y30" s="42"/>
       <c r="Z30" s="3">
         <v>8</v>
       </c>
@@ -3856,7 +3866,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3">
         <v>9</v>
       </c>
@@ -3890,7 +3900,7 @@
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M31" s="36"/>
+      <c r="M31" s="42"/>
       <c r="N31" s="3">
         <v>9</v>
       </c>
@@ -3924,7 +3934,7 @@
         <f t="shared" si="26"/>
         <v>180</v>
       </c>
-      <c r="Y31" s="36"/>
+      <c r="Y31" s="42"/>
       <c r="Z31" s="3">
         <v>9</v>
       </c>
@@ -3960,7 +3970,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3">
         <v>10</v>
       </c>
@@ -3994,7 +4004,7 @@
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M32" s="36"/>
+      <c r="M32" s="42"/>
       <c r="N32" s="3">
         <v>10</v>
       </c>
@@ -4028,7 +4038,7 @@
         <f t="shared" si="26"/>
         <v>172</v>
       </c>
-      <c r="Y32" s="36"/>
+      <c r="Y32" s="42"/>
       <c r="Z32" s="3">
         <v>10</v>
       </c>
@@ -4064,7 +4074,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3">
         <v>11</v>
       </c>
@@ -4098,7 +4108,7 @@
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="M33" s="36"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="3">
         <v>11</v>
       </c>
@@ -4132,7 +4142,7 @@
         <f t="shared" si="26"/>
         <v>178</v>
       </c>
-      <c r="Y33" s="36"/>
+      <c r="Y33" s="42"/>
       <c r="Z33" s="3">
         <v>11</v>
       </c>
@@ -4168,7 +4178,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="3">
         <v>12</v>
       </c>
@@ -4202,7 +4212,7 @@
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M34" s="36"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="3">
         <v>12</v>
       </c>
@@ -4236,7 +4246,7 @@
         <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y34" s="36"/>
+      <c r="Y34" s="42"/>
       <c r="Z34" s="3">
         <v>12</v>
       </c>
@@ -4272,7 +4282,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3">
         <v>13</v>
       </c>
@@ -4306,7 +4316,7 @@
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="M35" s="36"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="3">
         <v>13</v>
       </c>
@@ -4340,7 +4350,7 @@
         <f t="shared" si="26"/>
         <v>173</v>
       </c>
-      <c r="Y35" s="36"/>
+      <c r="Y35" s="42"/>
       <c r="Z35" s="3">
         <v>13</v>
       </c>
@@ -4376,7 +4386,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3">
         <v>14</v>
       </c>
@@ -4410,7 +4420,7 @@
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="M36" s="36"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="3">
         <v>14</v>
       </c>
@@ -4444,7 +4454,7 @@
         <f t="shared" si="26"/>
         <v>178</v>
       </c>
-      <c r="Y36" s="36"/>
+      <c r="Y36" s="42"/>
       <c r="Z36" s="3">
         <v>14</v>
       </c>
@@ -4480,7 +4490,7 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3">
         <v>15</v>
       </c>
@@ -4514,7 +4524,7 @@
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="M37" s="36"/>
+      <c r="M37" s="42"/>
       <c r="N37" s="3">
         <v>15</v>
       </c>
@@ -4548,7 +4558,7 @@
         <f t="shared" si="26"/>
         <v>177</v>
       </c>
-      <c r="Y37" s="36"/>
+      <c r="Y37" s="42"/>
       <c r="Z37" s="3">
         <v>15</v>
       </c>
@@ -4584,7 +4594,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4634,7 @@
         <f t="shared" si="30"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="M38" s="36"/>
+      <c r="M38" s="42"/>
       <c r="N38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4664,7 +4674,7 @@
         <f t="shared" si="31"/>
         <v>173.13333333333333</v>
       </c>
-      <c r="Y38" s="36"/>
+      <c r="Y38" s="42"/>
       <c r="Z38" s="3" t="s">
         <v>6</v>
       </c>
@@ -4706,7 +4716,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4722,18 +4732,18 @@
         <f>D39-C39</f>
         <v>123.99999999999997</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
       <c r="I39" s="18">
         <f>(100*E39)/D39</f>
         <v>42.6801284993116</v>
       </c>
       <c r="J39" s="16"/>
       <c r="K39" s="17"/>
-      <c r="M39" s="37"/>
+      <c r="M39" s="43"/>
       <c r="N39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4749,18 +4759,18 @@
         <f>P39-O39</f>
         <v>670.40000000000009</v>
       </c>
-      <c r="R39" s="32" t="s">
+      <c r="R39" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="S39" s="33"/>
-      <c r="T39" s="34"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="46"/>
       <c r="U39" s="18">
         <f>(100*Q39)/P39</f>
         <v>52.759706190975876</v>
       </c>
       <c r="V39" s="16"/>
       <c r="W39" s="17"/>
-      <c r="Y39" s="37"/>
+      <c r="Y39" s="43"/>
       <c r="Z39" s="14" t="s">
         <v>5</v>
       </c>
@@ -4776,11 +4786,11 @@
         <f>AB39-AA39</f>
         <v>692.26666666666654</v>
       </c>
-      <c r="AD39" s="32" t="s">
+      <c r="AD39" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="34"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="46"/>
       <c r="AG39" s="18">
         <f>(100*AC39)/AB39</f>
         <v>57.443159816341208</v>
@@ -4789,7 +4799,7 @@
       <c r="AI39" s="17"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="41">
         <v>4</v>
       </c>
       <c r="B40" s="8">
@@ -4825,7 +4835,7 @@
         <f>J40-I40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="41">
         <v>4</v>
       </c>
       <c r="N40" s="8">
@@ -4861,7 +4871,7 @@
         <f>V40-U40</f>
         <v>147</v>
       </c>
-      <c r="Y40" s="35">
+      <c r="Y40" s="41">
         <v>4</v>
       </c>
       <c r="Z40" s="8">
@@ -4899,7 +4909,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="3">
         <v>2</v>
       </c>
@@ -4933,7 +4943,7 @@
         <f t="shared" ref="K41:K54" si="35">J41-I41</f>
         <v>18</v>
       </c>
-      <c r="M41" s="36"/>
+      <c r="M41" s="42"/>
       <c r="N41" s="3">
         <v>2</v>
       </c>
@@ -4967,7 +4977,7 @@
         <f t="shared" ref="W41:W54" si="38">V41-U41</f>
         <v>178</v>
       </c>
-      <c r="Y41" s="36"/>
+      <c r="Y41" s="42"/>
       <c r="Z41" s="3">
         <v>2</v>
       </c>
@@ -5003,7 +5013,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -5037,7 +5047,7 @@
         <f t="shared" si="35"/>
         <v>22</v>
       </c>
-      <c r="M42" s="36"/>
+      <c r="M42" s="42"/>
       <c r="N42" s="3">
         <v>3</v>
       </c>
@@ -5071,7 +5081,7 @@
         <f t="shared" si="38"/>
         <v>180</v>
       </c>
-      <c r="Y42" s="36"/>
+      <c r="Y42" s="42"/>
       <c r="Z42" s="3">
         <v>3</v>
       </c>
@@ -5107,7 +5117,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="3">
         <v>4</v>
       </c>
@@ -5141,7 +5151,7 @@
         <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M43" s="36"/>
+      <c r="M43" s="42"/>
       <c r="N43" s="3">
         <v>4</v>
       </c>
@@ -5175,7 +5185,7 @@
         <f t="shared" si="38"/>
         <v>172</v>
       </c>
-      <c r="Y43" s="36"/>
+      <c r="Y43" s="42"/>
       <c r="Z43" s="3">
         <v>4</v>
       </c>
@@ -5211,7 +5221,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -5245,7 +5255,7 @@
         <f t="shared" si="35"/>
         <v>25</v>
       </c>
-      <c r="M44" s="36"/>
+      <c r="M44" s="42"/>
       <c r="N44" s="3">
         <v>5</v>
       </c>
@@ -5279,7 +5289,7 @@
         <f t="shared" si="38"/>
         <v>195</v>
       </c>
-      <c r="Y44" s="36"/>
+      <c r="Y44" s="42"/>
       <c r="Z44" s="3">
         <v>5</v>
       </c>
@@ -5315,7 +5325,7 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="3">
         <v>6</v>
       </c>
@@ -5349,7 +5359,7 @@
         <f t="shared" si="35"/>
         <v>24</v>
       </c>
-      <c r="M45" s="36"/>
+      <c r="M45" s="42"/>
       <c r="N45" s="3">
         <v>6</v>
       </c>
@@ -5383,7 +5393,7 @@
         <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y45" s="36"/>
+      <c r="Y45" s="42"/>
       <c r="Z45" s="3">
         <v>6</v>
       </c>
@@ -5419,7 +5429,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="3">
         <v>7</v>
       </c>
@@ -5453,7 +5463,7 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
-      <c r="M46" s="36"/>
+      <c r="M46" s="42"/>
       <c r="N46" s="3">
         <v>7</v>
       </c>
@@ -5487,7 +5497,7 @@
         <f t="shared" si="38"/>
         <v>177</v>
       </c>
-      <c r="Y46" s="36"/>
+      <c r="Y46" s="42"/>
       <c r="Z46" s="3">
         <v>7</v>
       </c>
@@ -5523,7 +5533,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="3">
         <v>8</v>
       </c>
@@ -5557,7 +5567,7 @@
         <f t="shared" si="35"/>
         <v>26</v>
       </c>
-      <c r="M47" s="36"/>
+      <c r="M47" s="42"/>
       <c r="N47" s="3">
         <v>8</v>
       </c>
@@ -5591,7 +5601,7 @@
         <f t="shared" si="38"/>
         <v>194</v>
       </c>
-      <c r="Y47" s="36"/>
+      <c r="Y47" s="42"/>
       <c r="Z47" s="3">
         <v>8</v>
       </c>
@@ -5627,7 +5637,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="3">
         <v>9</v>
       </c>
@@ -5661,7 +5671,7 @@
         <f t="shared" si="35"/>
         <v>21</v>
       </c>
-      <c r="M48" s="36"/>
+      <c r="M48" s="42"/>
       <c r="N48" s="3">
         <v>9</v>
       </c>
@@ -5695,7 +5705,7 @@
         <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y48" s="36"/>
+      <c r="Y48" s="42"/>
       <c r="Z48" s="3">
         <v>9</v>
       </c>
@@ -5731,7 +5741,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="3">
         <v>10</v>
       </c>
@@ -5765,7 +5775,7 @@
         <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M49" s="36"/>
+      <c r="M49" s="42"/>
       <c r="N49" s="3">
         <v>10</v>
       </c>
@@ -5799,7 +5809,7 @@
         <f t="shared" si="38"/>
         <v>180</v>
       </c>
-      <c r="Y49" s="36"/>
+      <c r="Y49" s="42"/>
       <c r="Z49" s="3">
         <v>10</v>
       </c>
@@ -5835,7 +5845,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="3">
         <v>11</v>
       </c>
@@ -5869,7 +5879,7 @@
         <f t="shared" si="35"/>
         <v>22</v>
       </c>
-      <c r="M50" s="36"/>
+      <c r="M50" s="42"/>
       <c r="N50" s="3">
         <v>11</v>
       </c>
@@ -5903,7 +5913,7 @@
         <f t="shared" si="38"/>
         <v>157</v>
       </c>
-      <c r="Y50" s="36"/>
+      <c r="Y50" s="42"/>
       <c r="Z50" s="3">
         <v>11</v>
       </c>
@@ -5939,7 +5949,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="3">
         <v>12</v>
       </c>
@@ -5973,7 +5983,7 @@
         <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M51" s="36"/>
+      <c r="M51" s="42"/>
       <c r="N51" s="3">
         <v>12</v>
       </c>
@@ -6007,7 +6017,7 @@
         <f t="shared" si="38"/>
         <v>181</v>
       </c>
-      <c r="Y51" s="36"/>
+      <c r="Y51" s="42"/>
       <c r="Z51" s="3">
         <v>12</v>
       </c>
@@ -6043,7 +6053,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="3">
         <v>13</v>
       </c>
@@ -6077,7 +6087,7 @@
         <f t="shared" si="35"/>
         <v>24</v>
       </c>
-      <c r="M52" s="36"/>
+      <c r="M52" s="42"/>
       <c r="N52" s="3">
         <v>13</v>
       </c>
@@ -6111,7 +6121,7 @@
         <f t="shared" si="38"/>
         <v>188</v>
       </c>
-      <c r="Y52" s="36"/>
+      <c r="Y52" s="42"/>
       <c r="Z52" s="3">
         <v>13</v>
       </c>
@@ -6147,7 +6157,7 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="3">
         <v>14</v>
       </c>
@@ -6181,7 +6191,7 @@
         <f t="shared" si="35"/>
         <v>23</v>
       </c>
-      <c r="M53" s="36"/>
+      <c r="M53" s="42"/>
       <c r="N53" s="3">
         <v>14</v>
       </c>
@@ -6215,7 +6225,7 @@
         <f t="shared" si="38"/>
         <v>188</v>
       </c>
-      <c r="Y53" s="36"/>
+      <c r="Y53" s="42"/>
       <c r="Z53" s="3">
         <v>14</v>
       </c>
@@ -6251,7 +6261,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="3">
         <v>15</v>
       </c>
@@ -6285,7 +6295,7 @@
         <f t="shared" si="35"/>
         <v>27</v>
       </c>
-      <c r="M54" s="36"/>
+      <c r="M54" s="42"/>
       <c r="N54" s="3">
         <v>15</v>
       </c>
@@ -6319,7 +6329,7 @@
         <f t="shared" si="38"/>
         <v>179</v>
       </c>
-      <c r="Y54" s="36"/>
+      <c r="Y54" s="42"/>
       <c r="Z54" s="3">
         <v>15</v>
       </c>
@@ -6355,7 +6365,7 @@
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
@@ -6395,7 +6405,7 @@
         <f>AVERAGE(K40:K44)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="M55" s="36"/>
+      <c r="M55" s="42"/>
       <c r="N55" s="3" t="s">
         <v>6</v>
       </c>
@@ -6435,7 +6445,7 @@
         <f>AVERAGE(W40:W44)</f>
         <v>174.4</v>
       </c>
-      <c r="Y55" s="36"/>
+      <c r="Y55" s="42"/>
       <c r="Z55" s="3" t="s">
         <v>6</v>
       </c>
@@ -6477,7 +6487,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6493,18 +6503,18 @@
         <f>D56-C56</f>
         <v>165.00000000000006</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="39"/>
-      <c r="H56" s="40"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="26">
         <f>(100*E56)/D56</f>
         <v>57.014512785072583</v>
       </c>
       <c r="J56" s="16"/>
       <c r="K56" s="17"/>
-      <c r="M56" s="37"/>
+      <c r="M56" s="43"/>
       <c r="N56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6520,18 +6530,18 @@
         <f>P56-O56</f>
         <v>842.8</v>
       </c>
-      <c r="R56" s="38" t="s">
+      <c r="R56" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S56" s="39"/>
-      <c r="T56" s="40"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="49"/>
       <c r="U56" s="26">
         <f>(100*Q56)/P56</f>
         <v>67.166082244182348</v>
       </c>
       <c r="V56" s="16"/>
       <c r="W56" s="17"/>
-      <c r="Y56" s="37"/>
+      <c r="Y56" s="43"/>
       <c r="Z56" s="14" t="s">
         <v>5</v>
       </c>
@@ -6547,11 +6557,11 @@
         <f>AB56-AA56</f>
         <v>631.59999999999991</v>
       </c>
-      <c r="AD56" s="38" t="s">
+      <c r="AD56" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="40"/>
+      <c r="AE56" s="48"/>
+      <c r="AF56" s="49"/>
       <c r="AG56" s="26">
         <f>(100*AC56)/AB56</f>
         <v>60.374713229671173</v>
@@ -6560,7 +6570,7 @@
       <c r="AI56" s="17"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="35">
+      <c r="A57" s="41">
         <v>8</v>
       </c>
       <c r="B57" s="8">
@@ -6596,7 +6606,7 @@
         <f>J57-I57</f>
         <v>-3</v>
       </c>
-      <c r="M57" s="35">
+      <c r="M57" s="41">
         <v>8</v>
       </c>
       <c r="N57" s="8">
@@ -6632,7 +6642,7 @@
         <f>V57-U57</f>
         <v>146</v>
       </c>
-      <c r="Y57" s="35">
+      <c r="Y57" s="41">
         <v>8</v>
       </c>
       <c r="Z57" s="8">
@@ -6670,7 +6680,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="36"/>
+      <c r="A58" s="42"/>
       <c r="B58" s="3">
         <v>2</v>
       </c>
@@ -6704,7 +6714,7 @@
         <f t="shared" ref="K58:K71" si="44">J58-I58</f>
         <v>22</v>
       </c>
-      <c r="M58" s="36"/>
+      <c r="M58" s="42"/>
       <c r="N58" s="3">
         <v>2</v>
       </c>
@@ -6738,7 +6748,7 @@
         <f t="shared" ref="W58:W71" si="46">V58-U58</f>
         <v>163</v>
       </c>
-      <c r="Y58" s="36"/>
+      <c r="Y58" s="42"/>
       <c r="Z58" s="3">
         <v>2</v>
       </c>
@@ -6774,7 +6784,7 @@
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+      <c r="A59" s="42"/>
       <c r="B59" s="3">
         <v>3</v>
       </c>
@@ -6808,7 +6818,7 @@
         <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M59" s="36"/>
+      <c r="M59" s="42"/>
       <c r="N59" s="3">
         <v>3</v>
       </c>
@@ -6842,7 +6852,7 @@
         <f t="shared" si="46"/>
         <v>175</v>
       </c>
-      <c r="Y59" s="36"/>
+      <c r="Y59" s="42"/>
       <c r="Z59" s="3">
         <v>3</v>
       </c>
@@ -6878,7 +6888,7 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="36"/>
+      <c r="A60" s="42"/>
       <c r="B60" s="3">
         <v>4</v>
       </c>
@@ -6912,7 +6922,7 @@
         <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="M60" s="36"/>
+      <c r="M60" s="42"/>
       <c r="N60" s="3">
         <v>4</v>
       </c>
@@ -6946,7 +6956,7 @@
         <f t="shared" si="46"/>
         <v>187</v>
       </c>
-      <c r="Y60" s="36"/>
+      <c r="Y60" s="42"/>
       <c r="Z60" s="3">
         <v>4</v>
       </c>
@@ -6982,7 +6992,7 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="3">
         <v>5</v>
       </c>
@@ -7016,7 +7026,7 @@
         <f t="shared" si="44"/>
         <v>20</v>
       </c>
-      <c r="M61" s="36"/>
+      <c r="M61" s="42"/>
       <c r="N61" s="3">
         <v>5</v>
       </c>
@@ -7050,7 +7060,7 @@
         <f t="shared" si="46"/>
         <v>135</v>
       </c>
-      <c r="Y61" s="36"/>
+      <c r="Y61" s="42"/>
       <c r="Z61" s="3">
         <v>5</v>
       </c>
@@ -7086,7 +7096,7 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
+      <c r="A62" s="42"/>
       <c r="B62" s="3">
         <v>6</v>
       </c>
@@ -7120,7 +7130,7 @@
         <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M62" s="36"/>
+      <c r="M62" s="42"/>
       <c r="N62" s="3">
         <v>6</v>
       </c>
@@ -7154,7 +7164,7 @@
         <f t="shared" si="46"/>
         <v>145</v>
       </c>
-      <c r="Y62" s="36"/>
+      <c r="Y62" s="42"/>
       <c r="Z62" s="3">
         <v>6</v>
       </c>
@@ -7190,7 +7200,7 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+      <c r="A63" s="42"/>
       <c r="B63" s="3">
         <v>7</v>
       </c>
@@ -7224,7 +7234,7 @@
         <f t="shared" si="44"/>
         <v>23</v>
       </c>
-      <c r="M63" s="36"/>
+      <c r="M63" s="42"/>
       <c r="N63" s="3">
         <v>7</v>
       </c>
@@ -7258,7 +7268,7 @@
         <f t="shared" si="46"/>
         <v>168</v>
       </c>
-      <c r="Y63" s="36"/>
+      <c r="Y63" s="42"/>
       <c r="Z63" s="3">
         <v>7</v>
       </c>
@@ -7294,7 +7304,7 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" s="36"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="3">
         <v>8</v>
       </c>
@@ -7328,7 +7338,7 @@
         <f t="shared" si="44"/>
         <v>18</v>
       </c>
-      <c r="M64" s="36"/>
+      <c r="M64" s="42"/>
       <c r="N64" s="3">
         <v>8</v>
       </c>
@@ -7362,7 +7372,7 @@
         <f t="shared" si="46"/>
         <v>186</v>
       </c>
-      <c r="Y64" s="36"/>
+      <c r="Y64" s="42"/>
       <c r="Z64" s="3">
         <v>8</v>
       </c>
@@ -7398,7 +7408,7 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" s="36"/>
+      <c r="A65" s="42"/>
       <c r="B65" s="3">
         <v>9</v>
       </c>
@@ -7432,7 +7442,7 @@
         <f t="shared" si="44"/>
         <v>22</v>
       </c>
-      <c r="M65" s="36"/>
+      <c r="M65" s="42"/>
       <c r="N65" s="3">
         <v>9</v>
       </c>
@@ -7466,7 +7476,7 @@
         <f t="shared" si="46"/>
         <v>173</v>
       </c>
-      <c r="Y65" s="36"/>
+      <c r="Y65" s="42"/>
       <c r="Z65" s="3">
         <v>9</v>
       </c>
@@ -7502,7 +7512,7 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" s="36"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="3">
         <v>10</v>
       </c>
@@ -7536,7 +7546,7 @@
         <f t="shared" si="44"/>
         <v>27</v>
       </c>
-      <c r="M66" s="36"/>
+      <c r="M66" s="42"/>
       <c r="N66" s="3">
         <v>10</v>
       </c>
@@ -7570,7 +7580,7 @@
         <f t="shared" si="46"/>
         <v>188</v>
       </c>
-      <c r="Y66" s="36"/>
+      <c r="Y66" s="42"/>
       <c r="Z66" s="3">
         <v>10</v>
       </c>
@@ -7606,7 +7616,7 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" s="36"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="3">
         <v>11</v>
       </c>
@@ -7640,7 +7650,7 @@
         <f t="shared" si="44"/>
         <v>24</v>
       </c>
-      <c r="M67" s="36"/>
+      <c r="M67" s="42"/>
       <c r="N67" s="3">
         <v>11</v>
       </c>
@@ -7674,7 +7684,7 @@
         <f t="shared" si="46"/>
         <v>149</v>
       </c>
-      <c r="Y67" s="36"/>
+      <c r="Y67" s="42"/>
       <c r="Z67" s="3">
         <v>11</v>
       </c>
@@ -7710,7 +7720,7 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="3">
         <v>12</v>
       </c>
@@ -7744,7 +7754,7 @@
         <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M68" s="36"/>
+      <c r="M68" s="42"/>
       <c r="N68" s="3">
         <v>12</v>
       </c>
@@ -7778,7 +7788,7 @@
         <f t="shared" si="46"/>
         <v>181</v>
       </c>
-      <c r="Y68" s="36"/>
+      <c r="Y68" s="42"/>
       <c r="Z68" s="3">
         <v>12</v>
       </c>
@@ -7814,7 +7824,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="3">
         <v>13</v>
       </c>
@@ -7848,7 +7858,7 @@
         <f t="shared" si="44"/>
         <v>22</v>
       </c>
-      <c r="M69" s="36"/>
+      <c r="M69" s="42"/>
       <c r="N69" s="3">
         <v>13</v>
       </c>
@@ -7882,7 +7892,7 @@
         <f t="shared" si="46"/>
         <v>179</v>
       </c>
-      <c r="Y69" s="36"/>
+      <c r="Y69" s="42"/>
       <c r="Z69" s="3">
         <v>13</v>
       </c>
@@ -7918,7 +7928,7 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="3">
         <v>14</v>
       </c>
@@ -7952,7 +7962,7 @@
         <f t="shared" si="44"/>
         <v>21</v>
       </c>
-      <c r="M70" s="36"/>
+      <c r="M70" s="42"/>
       <c r="N70" s="3">
         <v>14</v>
       </c>
@@ -7986,7 +7996,7 @@
         <f t="shared" si="46"/>
         <v>184</v>
       </c>
-      <c r="Y70" s="36"/>
+      <c r="Y70" s="42"/>
       <c r="Z70" s="3">
         <v>14</v>
       </c>
@@ -8022,7 +8032,7 @@
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" s="36"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="3">
         <v>15</v>
       </c>
@@ -8056,7 +8066,7 @@
         <f t="shared" si="44"/>
         <v>23</v>
       </c>
-      <c r="M71" s="36"/>
+      <c r="M71" s="42"/>
       <c r="N71" s="3">
         <v>15</v>
       </c>
@@ -8090,7 +8100,7 @@
         <f t="shared" si="46"/>
         <v>183</v>
       </c>
-      <c r="Y71" s="36"/>
+      <c r="Y71" s="42"/>
       <c r="Z71" s="3">
         <v>15</v>
       </c>
@@ -8126,7 +8136,7 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" s="36"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="3" t="s">
         <v>6</v>
       </c>
@@ -8166,7 +8176,7 @@
         <f>AVERAGE(K57:K61)</f>
         <v>16</v>
       </c>
-      <c r="M72" s="36"/>
+      <c r="M72" s="42"/>
       <c r="N72" s="3" t="s">
         <v>6</v>
       </c>
@@ -8206,7 +8216,7 @@
         <f>AVERAGE(W57:W61)</f>
         <v>161.19999999999999</v>
       </c>
-      <c r="Y72" s="36"/>
+      <c r="Y72" s="42"/>
       <c r="Z72" s="3" t="s">
         <v>6</v>
       </c>
@@ -8248,7 +8258,7 @@
       </c>
     </row>
     <row r="73" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="50"/>
       <c r="B73" s="19" t="s">
         <v>5</v>
       </c>
@@ -8264,18 +8274,18 @@
         <f>D73-C73</f>
         <v>168.46666666666664</v>
       </c>
-      <c r="F73" s="38" t="s">
+      <c r="F73" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="39"/>
-      <c r="H73" s="40"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="49"/>
       <c r="I73" s="27">
         <f>(100*E73)/D73</f>
         <v>57.418768461713242</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="22"/>
-      <c r="M73" s="41"/>
+      <c r="M73" s="50"/>
       <c r="N73" s="19" t="s">
         <v>5</v>
       </c>
@@ -8291,18 +8301,18 @@
         <f>P73-O73</f>
         <v>994.40000000000009</v>
       </c>
-      <c r="R73" s="38" t="s">
+      <c r="R73" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S73" s="39"/>
-      <c r="T73" s="40"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="49"/>
       <c r="U73" s="27">
         <f>(100*Q73)/P73</f>
         <v>67.271005276687873</v>
       </c>
       <c r="V73" s="21"/>
       <c r="W73" s="22"/>
-      <c r="Y73" s="41"/>
+      <c r="Y73" s="50"/>
       <c r="Z73" s="19" t="s">
         <v>5</v>
       </c>
@@ -8318,11 +8328,11 @@
         <f>AB73-AA73</f>
         <v>635.53333333333342</v>
       </c>
-      <c r="AD73" s="38" t="s">
+      <c r="AD73" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="40"/>
+      <c r="AE73" s="48"/>
+      <c r="AF73" s="49"/>
       <c r="AG73" s="27">
         <f>(100*AC73)/AB73</f>
         <v>60.894282976684771</v>
@@ -9003,23 +9013,20 @@
       <c r="L122" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A6:A22"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="A40:A56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="A57:A73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="M40:M56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="M57:M73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="Y23:Y39"/>
+  <mergeCells count="36">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="Y40:Y56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="Y57:Y73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="Y6:Y22"/>
+    <mergeCell ref="AD22:AF22"/>
     <mergeCell ref="U4:W4"/>
     <mergeCell ref="M6:M22"/>
     <mergeCell ref="R22:T22"/>
@@ -9027,16 +9034,22 @@
     <mergeCell ref="R39:T39"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R4:T4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="Y6:Y22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="Y40:Y56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="Y57:Y73"/>
-    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="M40:M56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="M57:M73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="Y23:Y39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A57:A73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A6:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
